--- a/外链/json format/codebeautify.org-jsonviewer/codebeautify.org-referringdomains-prefix-live-04-Feb-2021.xlsx
+++ b/外链/json format/codebeautify.org-jsonviewer/codebeautify.org-referringdomains-prefix-live-04-Feb-2021.xlsx
@@ -1775,9 +1775,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -1786,6 +1786,27 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1799,6 +1820,44 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1822,73 +1881,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1910,24 +1903,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1942,7 +1942,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1960,13 +2110,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1978,151 +2122,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2145,15 +2145,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2169,28 +2160,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2206,6 +2180,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2227,9 +2216,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2241,10 +2241,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2253,133 +2253,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2746,14 +2746,17 @@
   <sheetPr/>
   <dimension ref="A1:L572"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
+      <selection activeCell="B307" sqref="B307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.125" style="1" customWidth="1"/>
-    <col min="2" max="5" width="9" style="1"/>
+    <col min="2" max="2" width="28.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="27.875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>

--- a/外链/json format/codebeautify.org-jsonviewer/codebeautify.org-referringdomains-prefix-live-04-Feb-2021.xlsx
+++ b/外链/json format/codebeautify.org-jsonviewer/codebeautify.org-referringdomains-prefix-live-04-Feb-2021.xlsx
@@ -1775,10 +1775,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1796,15 +1796,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1826,15 +1820,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1848,18 +1834,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1879,9 +1857,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1903,25 +1910,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1932,13 +1925,176 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1954,109 +2110,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2068,61 +2122,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2133,15 +2139,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2163,8 +2160,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2184,6 +2199,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2199,21 +2229,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2221,15 +2236,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2241,10 +2247,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2253,147 +2259,156 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2746,8 +2761,8 @@
   <sheetPr/>
   <dimension ref="A1:L572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="B307" sqref="B307"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2756,7 +2771,7 @@
     <col min="2" max="2" width="28.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
+    <col min="5" max="5" width="18.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="27.875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -2824,13 +2839,13 @@
       <c r="H2" s="1">
         <v>0</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>44198.6006944444</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="4">
         <v>2410834</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="4">
         <v>55655</v>
       </c>
       <c r="L2" s="1">
@@ -2862,13 +2877,13 @@
       <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>44215.1972222222</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="4">
         <v>1473570</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="4">
         <v>108106</v>
       </c>
       <c r="L3" s="1">
@@ -2900,13 +2915,13 @@
       <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <v>42473.9944444444</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="4">
         <v>976054</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="4">
         <v>199115</v>
       </c>
       <c r="L4" s="1">
@@ -2938,10 +2953,10 @@
       <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>43493.1472222222</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="4">
         <v>509367</v>
       </c>
       <c r="K5" s="1">
@@ -2976,13 +2991,13 @@
       <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <v>44151.4069444444</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="4">
         <v>1219600</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="4">
         <v>207589</v>
       </c>
       <c r="L6" s="1">
@@ -3014,13 +3029,13 @@
       <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3">
         <v>44041.9430555556</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="4">
         <v>153349</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="4">
         <v>57129</v>
       </c>
       <c r="L7" s="1">
@@ -3052,10 +3067,10 @@
       <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="3">
         <v>43524.8506944444</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="4">
         <v>244749</v>
       </c>
       <c r="K8" s="1">
@@ -3065,41 +3080,41 @@
         <v>227712947</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:12">
-      <c r="A9" s="1">
+    <row r="9" s="2" customFormat="1" spans="1:12">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>92</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>273</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>39</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>0.13</v>
       </c>
-      <c r="G9" s="1">
-        <v>2</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="G9" s="2">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="I9" s="5">
         <v>42043.3520833333</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="6">
         <v>211375</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="6">
         <v>108001</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="2">
         <v>21728630</v>
       </c>
     </row>
@@ -3128,13 +3143,13 @@
       <c r="H10" s="1">
         <v>0</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="3">
         <v>44124.8847222222</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="4">
         <v>350509</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="4">
         <v>93737</v>
       </c>
       <c r="L10" s="1">
@@ -3166,13 +3181,13 @@
       <c r="H11" s="1">
         <v>0</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="3">
         <v>43518.5743055556</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="4">
         <v>108265</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="4">
         <v>12838</v>
       </c>
       <c r="L11" s="1">
@@ -3204,13 +3219,13 @@
       <c r="H12" s="1">
         <v>0</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="3">
         <v>43867.9715277778</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="4">
         <v>182628</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="4">
         <v>1358</v>
       </c>
       <c r="L12" s="1">
@@ -3242,10 +3257,10 @@
       <c r="H13" s="1">
         <v>0</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="3">
         <v>43192.5909722222</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="4">
         <v>54484</v>
       </c>
       <c r="K13" s="1">
@@ -3280,13 +3295,13 @@
       <c r="H14" s="1">
         <v>0</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="3">
         <v>43524.1944444444</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="4">
         <v>283394</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="4">
         <v>15743</v>
       </c>
       <c r="L14" s="1">
@@ -3318,13 +3333,13 @@
       <c r="H15" s="1">
         <v>0</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="3">
         <v>43497.0375</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="4">
         <v>245028</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="4">
         <v>964759</v>
       </c>
       <c r="L15" s="1">
@@ -3356,13 +3371,13 @@
       <c r="H16" s="1">
         <v>0</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="3">
         <v>43580.7895833333</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="4">
         <v>65165</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="4">
         <v>12847</v>
       </c>
       <c r="L16" s="1">
@@ -3394,10 +3409,10 @@
       <c r="H17" s="1">
         <v>0</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="3">
         <v>42943.7993055556</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="4">
         <v>107742</v>
       </c>
       <c r="K17" s="1">
@@ -3407,41 +3422,41 @@
         <v>112215915</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:12">
-      <c r="A18" s="1">
+    <row r="18" s="2" customFormat="1" spans="1:12">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>90</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>980</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>15</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>0.05</v>
       </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
         <v>42583.5590277778</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="6">
         <v>107657</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="6">
         <v>82883</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="2">
         <v>17637901</v>
       </c>
     </row>
@@ -3470,13 +3485,13 @@
       <c r="H19" s="1">
         <v>0</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="3">
         <v>43589.5743055556</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="4">
         <v>28393</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="4">
         <v>5541</v>
       </c>
       <c r="L19" s="1">
@@ -3508,13 +3523,13 @@
       <c r="H20" s="1">
         <v>0</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="3">
         <v>43576.2506944444</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="4">
         <v>70446</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="4">
         <v>1457</v>
       </c>
       <c r="L20" s="1">
@@ -3546,13 +3561,13 @@
       <c r="H21" s="1">
         <v>0.01</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="3">
         <v>43989.6347222222</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="4">
         <v>84044</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="4">
         <v>5690</v>
       </c>
       <c r="L21" s="1">
@@ -3584,13 +3599,13 @@
       <c r="H22" s="1">
         <v>0</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="3">
         <v>43744.7930555556</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="4">
         <v>65557</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="4">
         <v>170202</v>
       </c>
       <c r="L22" s="1">
@@ -3622,13 +3637,13 @@
       <c r="H23" s="1">
         <v>0</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="3">
         <v>43988.5923611111</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="4">
         <v>49177</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="4">
         <v>14964</v>
       </c>
       <c r="L23" s="1">
@@ -3660,13 +3675,13 @@
       <c r="H24" s="1">
         <v>0</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="3">
         <v>43511.7833333333</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="4">
         <v>35955</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="4">
         <v>74187</v>
       </c>
       <c r="L24" s="1">
@@ -3698,10 +3713,10 @@
       <c r="H25" s="1">
         <v>0</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="3">
         <v>43870.3680555556</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="4">
         <v>14262</v>
       </c>
       <c r="K25" s="1">
@@ -3736,10 +3751,10 @@
       <c r="H26" s="1">
         <v>0</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="3">
         <v>43928.6895833333</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="4">
         <v>51054</v>
       </c>
       <c r="K26" s="1">
@@ -3774,13 +3789,13 @@
       <c r="H27" s="1">
         <v>0</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="3">
         <v>44133.7555555556</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="4">
         <v>161664</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="4">
         <v>7482</v>
       </c>
       <c r="L27" s="1">
@@ -3812,10 +3827,10 @@
       <c r="H28" s="1">
         <v>0</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="3">
         <v>43331.7076388889</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="4">
         <v>35982</v>
       </c>
       <c r="K28" s="1">
@@ -3850,13 +3865,13 @@
       <c r="H29" s="1">
         <v>0</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="3">
         <v>43986.6527777778</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="4">
         <v>50501</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="4">
         <v>5583</v>
       </c>
       <c r="L29" s="1">
@@ -3888,13 +3903,13 @@
       <c r="H30" s="1">
         <v>0</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="3">
         <v>43978.5020833333</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="4">
         <v>13600</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="4">
         <v>2224</v>
       </c>
       <c r="L30" s="1">
@@ -3926,13 +3941,13 @@
       <c r="H31" s="1">
         <v>0.01</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="3">
         <v>44080.1361111111</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="4">
         <v>32875</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="4">
         <v>2616</v>
       </c>
       <c r="L31" s="1">
@@ -3964,13 +3979,13 @@
       <c r="H32" s="1">
         <v>0.01</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="3">
         <v>44230.5611111111</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="4">
         <v>59057</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="4">
         <v>26637</v>
       </c>
       <c r="L32" s="1">
@@ -4002,13 +4017,13 @@
       <c r="H33" s="1">
         <v>0</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="3">
         <v>44052.75625</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="4">
         <v>16770</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="4">
         <v>1111</v>
       </c>
       <c r="L33" s="1">
@@ -4040,13 +4055,13 @@
       <c r="H34" s="1">
         <v>0.02</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="3">
         <v>44070.8902777778</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="4">
         <v>32180</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="4">
         <v>237371</v>
       </c>
       <c r="L34" s="1">
@@ -4078,13 +4093,13 @@
       <c r="H35" s="1">
         <v>0.01</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="3">
         <v>44086.1791666667</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="4">
         <v>40256</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="4">
         <v>4827</v>
       </c>
       <c r="L35" s="1">
@@ -4116,13 +4131,13 @@
       <c r="H36" s="1">
         <v>0.09</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="3">
         <v>43457.3513888889</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="4">
         <v>24586</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="4">
         <v>81890</v>
       </c>
       <c r="L36" s="1">
@@ -4154,13 +4169,13 @@
       <c r="H37" s="1">
         <v>0</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="3">
         <v>44141.8784722222</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="4">
         <v>43522</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="4">
         <v>113919</v>
       </c>
       <c r="L37" s="1">
@@ -4192,13 +4207,13 @@
       <c r="H38" s="1">
         <v>0.01</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="3">
         <v>43671.6888888889</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="4">
         <v>14502</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="4">
         <v>2018</v>
       </c>
       <c r="L38" s="1">
@@ -4230,10 +4245,10 @@
       <c r="H39" s="1">
         <v>0</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="3">
         <v>43338.8416666667</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="4">
         <v>37010</v>
       </c>
       <c r="K39" s="1">
@@ -4268,13 +4283,13 @@
       <c r="H40" s="1">
         <v>0</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="3">
         <v>42366.0555555556</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="4">
         <v>29780</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="4">
         <v>20187</v>
       </c>
       <c r="L40" s="1">
@@ -4306,13 +4321,13 @@
       <c r="H41" s="1">
         <v>0</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="3">
         <v>43648.6444444444</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="4">
         <v>41507</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="4">
         <v>24009</v>
       </c>
       <c r="L41" s="1">
@@ -4344,13 +4359,13 @@
       <c r="H42" s="1">
         <v>0</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="3">
         <v>43993.0215277778</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="4">
         <v>22010</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="4">
         <v>1196</v>
       </c>
       <c r="L42" s="1">
@@ -4382,10 +4397,10 @@
       <c r="H43" s="1">
         <v>0</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="3">
         <v>43450.6229166667</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="4">
         <v>4091</v>
       </c>
       <c r="K43" s="1">
@@ -4420,13 +4435,13 @@
       <c r="H44" s="1">
         <v>0</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="3">
         <v>43683.5430555556</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="4">
         <v>8342</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="4">
         <v>66912</v>
       </c>
       <c r="L44" s="1">
@@ -4458,10 +4473,10 @@
       <c r="H45" s="1">
         <v>0</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="3">
         <v>43457.0944444444</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="4">
         <v>4610</v>
       </c>
       <c r="K45" s="1">
@@ -4496,13 +4511,13 @@
       <c r="H46" s="1">
         <v>0</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="3">
         <v>44043.9256944444</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="4">
         <v>33913</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="4">
         <v>220120</v>
       </c>
       <c r="L46" s="1">
@@ -4534,13 +4549,13 @@
       <c r="H47" s="1">
         <v>0.04</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="3">
         <v>43537.2506944444</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="4">
         <v>34535</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="4">
         <v>23695</v>
       </c>
       <c r="L47" s="1">
@@ -4572,13 +4587,13 @@
       <c r="H48" s="1">
         <v>0.05</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="3">
         <v>43115.1479166667</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="4">
         <v>42745</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="4">
         <v>62772</v>
       </c>
       <c r="L48" s="1">
@@ -4610,10 +4625,10 @@
       <c r="H49" s="1">
         <v>0</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="3">
         <v>44106.0916666667</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="4">
         <v>30400</v>
       </c>
       <c r="K49" s="1">
@@ -4648,13 +4663,13 @@
       <c r="H50" s="1">
         <v>0</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="3">
         <v>43617.6472222222</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50" s="4">
         <v>14127</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50" s="4">
         <v>19190</v>
       </c>
       <c r="L50" s="1">
@@ -4686,13 +4701,13 @@
       <c r="H51" s="1">
         <v>0.01</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="3">
         <v>43234.6381944444</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J51" s="4">
         <v>15725</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51" s="4">
         <v>4790</v>
       </c>
       <c r="L51" s="1">
@@ -4724,13 +4739,13 @@
       <c r="H52" s="1">
         <v>0.03</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="3">
         <v>43756.9013888889</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="4">
         <v>16205</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="4">
         <v>36075</v>
       </c>
       <c r="L52" s="1">
@@ -4762,13 +4777,13 @@
       <c r="H53" s="1">
         <v>0</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="3">
         <v>43528.4458333333</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J53" s="4">
         <v>45953</v>
       </c>
-      <c r="K53" s="3">
+      <c r="K53" s="4">
         <v>17006</v>
       </c>
       <c r="L53" s="1">
@@ -4800,10 +4815,10 @@
       <c r="H54" s="1">
         <v>0</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="3">
         <v>43191.33125</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="4">
         <v>18692</v>
       </c>
       <c r="K54" s="1">
@@ -4838,10 +4853,10 @@
       <c r="H55" s="1">
         <v>0.01</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="3">
         <v>44072.2229166667</v>
       </c>
-      <c r="J55" s="3">
+      <c r="J55" s="4">
         <v>4802</v>
       </c>
       <c r="K55" s="1">
@@ -4876,13 +4891,13 @@
       <c r="H56" s="1">
         <v>0</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I56" s="3">
         <v>44126.3423611111</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J56" s="4">
         <v>11003</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K56" s="4">
         <v>2296</v>
       </c>
       <c r="L56" s="1">
@@ -4914,13 +4929,13 @@
       <c r="H57" s="1">
         <v>0</v>
       </c>
-      <c r="I57" s="2">
+      <c r="I57" s="3">
         <v>44171.1625</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="4">
         <v>8385</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="4">
         <v>8126</v>
       </c>
       <c r="L57" s="1">
@@ -4952,10 +4967,10 @@
       <c r="H58" s="1">
         <v>0</v>
       </c>
-      <c r="I58" s="2">
+      <c r="I58" s="3">
         <v>43930.8034722222</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="4">
         <v>3584</v>
       </c>
       <c r="K58" s="1">
@@ -4990,10 +5005,10 @@
       <c r="H59" s="1">
         <v>0</v>
       </c>
-      <c r="I59" s="2">
+      <c r="I59" s="3">
         <v>43684.875</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="4">
         <v>13871</v>
       </c>
       <c r="K59" s="1">
@@ -5028,13 +5043,13 @@
       <c r="H60" s="1">
         <v>0.01</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I60" s="3">
         <v>43448.0875</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J60" s="4">
         <v>20310</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="4">
         <v>16264</v>
       </c>
       <c r="L60" s="1">
@@ -5066,13 +5081,13 @@
       <c r="H61" s="1">
         <v>0</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I61" s="3">
         <v>44174.4208333333</v>
       </c>
-      <c r="J61" s="3">
+      <c r="J61" s="4">
         <v>8676</v>
       </c>
-      <c r="K61" s="3">
+      <c r="K61" s="4">
         <v>1223</v>
       </c>
       <c r="L61" s="1">
@@ -5104,10 +5119,10 @@
       <c r="H62" s="1">
         <v>0.01</v>
       </c>
-      <c r="I62" s="2">
+      <c r="I62" s="3">
         <v>43463.5430555556</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="4">
         <v>8720</v>
       </c>
       <c r="K62" s="1">
@@ -5142,13 +5157,13 @@
       <c r="H63" s="1">
         <v>0.01</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I63" s="3">
         <v>44216.4361111111</v>
       </c>
-      <c r="J63" s="3">
+      <c r="J63" s="4">
         <v>8090</v>
       </c>
-      <c r="K63" s="3">
+      <c r="K63" s="4">
         <v>4638</v>
       </c>
       <c r="L63" s="1">
@@ -5180,13 +5195,13 @@
       <c r="H64" s="1">
         <v>0</v>
       </c>
-      <c r="I64" s="2">
+      <c r="I64" s="3">
         <v>43982.0041666667</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J64" s="4">
         <v>27596</v>
       </c>
-      <c r="K64" s="3">
+      <c r="K64" s="4">
         <v>26480</v>
       </c>
       <c r="L64" s="1">
@@ -5218,10 +5233,10 @@
       <c r="H65" s="1">
         <v>0</v>
       </c>
-      <c r="I65" s="2">
+      <c r="I65" s="3">
         <v>43914.5256944444</v>
       </c>
-      <c r="J65" s="3">
+      <c r="J65" s="4">
         <v>46923</v>
       </c>
       <c r="K65" s="1">
@@ -5256,13 +5271,13 @@
       <c r="H66" s="1">
         <v>0</v>
       </c>
-      <c r="I66" s="2">
+      <c r="I66" s="3">
         <v>44226.3284722222</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66" s="4">
         <v>7543</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="4">
         <v>1702</v>
       </c>
       <c r="L66" s="1">
@@ -5294,13 +5309,13 @@
       <c r="H67" s="1">
         <v>0.02</v>
       </c>
-      <c r="I67" s="2">
+      <c r="I67" s="3">
         <v>44104.4222222222</v>
       </c>
-      <c r="J67" s="3">
+      <c r="J67" s="4">
         <v>8225</v>
       </c>
-      <c r="K67" s="3">
+      <c r="K67" s="4">
         <v>2439</v>
       </c>
       <c r="L67" s="1">
@@ -5332,13 +5347,13 @@
       <c r="H68" s="1">
         <v>0.01</v>
       </c>
-      <c r="I68" s="2">
+      <c r="I68" s="3">
         <v>43959.1486111111</v>
       </c>
-      <c r="J68" s="3">
+      <c r="J68" s="4">
         <v>8278</v>
       </c>
-      <c r="K68" s="3">
+      <c r="K68" s="4">
         <v>8396</v>
       </c>
       <c r="L68" s="1">
@@ -5370,10 +5385,10 @@
       <c r="H69" s="1">
         <v>0</v>
       </c>
-      <c r="I69" s="2">
+      <c r="I69" s="3">
         <v>44191.6465277778</v>
       </c>
-      <c r="J69" s="3">
+      <c r="J69" s="4">
         <v>15894</v>
       </c>
       <c r="K69" s="1">
@@ -5408,13 +5423,13 @@
       <c r="H70" s="1">
         <v>0.01</v>
       </c>
-      <c r="I70" s="2">
+      <c r="I70" s="3">
         <v>43848.3909722222</v>
       </c>
-      <c r="J70" s="3">
+      <c r="J70" s="4">
         <v>10343</v>
       </c>
-      <c r="K70" s="3">
+      <c r="K70" s="4">
         <v>5075</v>
       </c>
       <c r="L70" s="1">
@@ -5446,13 +5461,13 @@
       <c r="H71" s="1">
         <v>0</v>
       </c>
-      <c r="I71" s="2">
+      <c r="I71" s="3">
         <v>43980.5486111111</v>
       </c>
-      <c r="J71" s="3">
+      <c r="J71" s="4">
         <v>17049</v>
       </c>
-      <c r="K71" s="3">
+      <c r="K71" s="4">
         <v>2036</v>
       </c>
       <c r="L71" s="1">
@@ -5484,13 +5499,13 @@
       <c r="H72" s="1">
         <v>0</v>
       </c>
-      <c r="I72" s="2">
+      <c r="I72" s="3">
         <v>44185.0888888889</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="4">
         <v>5337</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="4">
         <v>29345</v>
       </c>
       <c r="L72" s="1">
@@ -5522,13 +5537,13 @@
       <c r="H73" s="1">
         <v>0.01</v>
       </c>
-      <c r="I73" s="2">
+      <c r="I73" s="3">
         <v>44193.0222222222</v>
       </c>
-      <c r="J73" s="3">
+      <c r="J73" s="4">
         <v>8702</v>
       </c>
-      <c r="K73" s="3">
+      <c r="K73" s="4">
         <v>22621</v>
       </c>
       <c r="L73" s="1">
@@ -5560,13 +5575,13 @@
       <c r="H74" s="1">
         <v>0</v>
       </c>
-      <c r="I74" s="2">
+      <c r="I74" s="3">
         <v>43935.1743055556</v>
       </c>
-      <c r="J74" s="3">
+      <c r="J74" s="4">
         <v>12167</v>
       </c>
-      <c r="K74" s="3">
+      <c r="K74" s="4">
         <v>175318</v>
       </c>
       <c r="L74" s="1">
@@ -5598,13 +5613,13 @@
       <c r="H75" s="1">
         <v>0.07</v>
       </c>
-      <c r="I75" s="2">
+      <c r="I75" s="3">
         <v>43918.5402777778</v>
       </c>
-      <c r="J75" s="3">
+      <c r="J75" s="4">
         <v>3785</v>
       </c>
-      <c r="K75" s="3">
+      <c r="K75" s="4">
         <v>2919</v>
       </c>
       <c r="L75" s="1">
@@ -5636,10 +5651,10 @@
       <c r="H76" s="1">
         <v>0</v>
       </c>
-      <c r="I76" s="2">
+      <c r="I76" s="3">
         <v>44132.1701388889</v>
       </c>
-      <c r="J76" s="3">
+      <c r="J76" s="4">
         <v>10294</v>
       </c>
       <c r="K76" s="1">
@@ -5674,13 +5689,13 @@
       <c r="H77" s="1">
         <v>0</v>
       </c>
-      <c r="I77" s="2">
+      <c r="I77" s="3">
         <v>43394.1145833333</v>
       </c>
-      <c r="J77" s="3">
+      <c r="J77" s="4">
         <v>3464</v>
       </c>
-      <c r="K77" s="3">
+      <c r="K77" s="4">
         <v>1933</v>
       </c>
       <c r="L77" s="1">
@@ -5712,13 +5727,13 @@
       <c r="H78" s="1">
         <v>0.01</v>
       </c>
-      <c r="I78" s="2">
+      <c r="I78" s="3">
         <v>44201.3263888889</v>
       </c>
-      <c r="J78" s="3">
+      <c r="J78" s="4">
         <v>10512</v>
       </c>
-      <c r="K78" s="3">
+      <c r="K78" s="4">
         <v>8349</v>
       </c>
       <c r="L78" s="1">
@@ -5750,13 +5765,13 @@
       <c r="H79" s="1">
         <v>0</v>
       </c>
-      <c r="I79" s="2">
+      <c r="I79" s="3">
         <v>44218.8368055556</v>
       </c>
-      <c r="J79" s="3">
+      <c r="J79" s="4">
         <v>4770</v>
       </c>
-      <c r="K79" s="3">
+      <c r="K79" s="4">
         <v>8717</v>
       </c>
       <c r="L79" s="1">
@@ -5788,13 +5803,13 @@
       <c r="H80" s="1">
         <v>0.01</v>
       </c>
-      <c r="I80" s="2">
+      <c r="I80" s="3">
         <v>43529.7152777778</v>
       </c>
-      <c r="J80" s="3">
+      <c r="J80" s="4">
         <v>1665</v>
       </c>
-      <c r="K80" s="3">
+      <c r="K80" s="4">
         <v>79553</v>
       </c>
       <c r="L80" s="1">
@@ -5826,10 +5841,10 @@
       <c r="H81" s="1">
         <v>0</v>
       </c>
-      <c r="I81" s="2">
+      <c r="I81" s="3">
         <v>44027.9541666667</v>
       </c>
-      <c r="J81" s="3">
+      <c r="J81" s="4">
         <v>2845</v>
       </c>
       <c r="K81" s="1">
@@ -5864,10 +5879,10 @@
       <c r="H82" s="1">
         <v>0</v>
       </c>
-      <c r="I82" s="2">
+      <c r="I82" s="3">
         <v>44172.7305555556</v>
       </c>
-      <c r="J82" s="3">
+      <c r="J82" s="4">
         <v>2313</v>
       </c>
       <c r="K82" s="1">
@@ -5902,13 +5917,13 @@
       <c r="H83" s="1">
         <v>0.01</v>
       </c>
-      <c r="I83" s="2">
+      <c r="I83" s="3">
         <v>44106.4465277778</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="4">
         <v>8630</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="4">
         <v>1968</v>
       </c>
       <c r="L83" s="1">
@@ -5940,13 +5955,13 @@
       <c r="H84" s="1">
         <v>0</v>
       </c>
-      <c r="I84" s="2">
+      <c r="I84" s="3">
         <v>44218.0131944444</v>
       </c>
-      <c r="J84" s="3">
+      <c r="J84" s="4">
         <v>7262</v>
       </c>
-      <c r="K84" s="3">
+      <c r="K84" s="4">
         <v>39323</v>
       </c>
       <c r="L84" s="1">
@@ -5978,13 +5993,13 @@
       <c r="H85" s="1">
         <v>0</v>
       </c>
-      <c r="I85" s="2">
+      <c r="I85" s="3">
         <v>44199.2388888889</v>
       </c>
-      <c r="J85" s="3">
+      <c r="J85" s="4">
         <v>5854</v>
       </c>
-      <c r="K85" s="3">
+      <c r="K85" s="4">
         <v>13284</v>
       </c>
       <c r="L85" s="1">
@@ -6016,13 +6031,13 @@
       <c r="H86" s="1">
         <v>0</v>
       </c>
-      <c r="I86" s="2">
+      <c r="I86" s="3">
         <v>43034.0291666667</v>
       </c>
-      <c r="J86" s="3">
+      <c r="J86" s="4">
         <v>3698</v>
       </c>
-      <c r="K86" s="3">
+      <c r="K86" s="4">
         <v>8698</v>
       </c>
       <c r="L86" s="1">
@@ -6054,13 +6069,13 @@
       <c r="H87" s="1">
         <v>0.01</v>
       </c>
-      <c r="I87" s="2">
+      <c r="I87" s="3">
         <v>42900.975</v>
       </c>
-      <c r="J87" s="3">
+      <c r="J87" s="4">
         <v>10373</v>
       </c>
-      <c r="K87" s="3">
+      <c r="K87" s="4">
         <v>69496</v>
       </c>
       <c r="L87" s="1">
@@ -6092,13 +6107,13 @@
       <c r="H88" s="1">
         <v>0</v>
       </c>
-      <c r="I88" s="2">
+      <c r="I88" s="3">
         <v>44217.5993055556</v>
       </c>
-      <c r="J88" s="3">
+      <c r="J88" s="4">
         <v>4542</v>
       </c>
-      <c r="K88" s="3">
+      <c r="K88" s="4">
         <v>5366</v>
       </c>
       <c r="L88" s="1">
@@ -6130,10 +6145,10 @@
       <c r="H89" s="1">
         <v>0</v>
       </c>
-      <c r="I89" s="2">
+      <c r="I89" s="3">
         <v>43841.9465277778</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="4">
         <v>3204</v>
       </c>
       <c r="K89" s="1">
@@ -6168,13 +6183,13 @@
       <c r="H90" s="1">
         <v>0</v>
       </c>
-      <c r="I90" s="2">
+      <c r="I90" s="3">
         <v>44190.8138888889</v>
       </c>
-      <c r="J90" s="3">
+      <c r="J90" s="4">
         <v>5773</v>
       </c>
-      <c r="K90" s="3">
+      <c r="K90" s="4">
         <v>873982</v>
       </c>
       <c r="L90" s="1">
@@ -6206,7 +6221,7 @@
       <c r="H91" s="1">
         <v>0</v>
       </c>
-      <c r="I91" s="2">
+      <c r="I91" s="3">
         <v>42639.1972222222</v>
       </c>
       <c r="J91" s="1">
@@ -6244,10 +6259,10 @@
       <c r="H92" s="1">
         <v>0</v>
       </c>
-      <c r="I92" s="2">
+      <c r="I92" s="3">
         <v>43849.1798611111</v>
       </c>
-      <c r="J92" s="3">
+      <c r="J92" s="4">
         <v>1263</v>
       </c>
       <c r="K92" s="1">
@@ -6282,13 +6297,13 @@
       <c r="H93" s="1">
         <v>0.01</v>
       </c>
-      <c r="I93" s="2">
+      <c r="I93" s="3">
         <v>43990.8743055556</v>
       </c>
-      <c r="J93" s="3">
+      <c r="J93" s="4">
         <v>10997</v>
       </c>
-      <c r="K93" s="3">
+      <c r="K93" s="4">
         <v>10397</v>
       </c>
       <c r="L93" s="1">
@@ -6320,13 +6335,13 @@
       <c r="H94" s="1">
         <v>0</v>
       </c>
-      <c r="I94" s="2">
+      <c r="I94" s="3">
         <v>44060.9138888889</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="4">
         <v>2091</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="4">
         <v>4908</v>
       </c>
       <c r="L94" s="1">
@@ -6358,7 +6373,7 @@
       <c r="H95" s="1">
         <v>0</v>
       </c>
-      <c r="I95" s="2">
+      <c r="I95" s="3">
         <v>43517.5027777778</v>
       </c>
       <c r="J95" s="1">
@@ -6396,10 +6411,10 @@
       <c r="H96" s="1">
         <v>0</v>
       </c>
-      <c r="I96" s="2">
+      <c r="I96" s="3">
         <v>42275.8520833333</v>
       </c>
-      <c r="J96" s="3">
+      <c r="J96" s="4">
         <v>3044</v>
       </c>
       <c r="K96" s="1">
@@ -6434,7 +6449,7 @@
       <c r="H97" s="1">
         <v>0.01</v>
       </c>
-      <c r="I97" s="2">
+      <c r="I97" s="3">
         <v>44222.6256944444</v>
       </c>
       <c r="J97" s="1">
@@ -6472,10 +6487,10 @@
       <c r="H98" s="1">
         <v>0</v>
       </c>
-      <c r="I98" s="2">
+      <c r="I98" s="3">
         <v>43978.3131944444</v>
       </c>
-      <c r="J98" s="3">
+      <c r="J98" s="4">
         <v>4000</v>
       </c>
       <c r="K98" s="1">
@@ -6510,13 +6525,13 @@
       <c r="H99" s="1">
         <v>0</v>
       </c>
-      <c r="I99" s="2">
+      <c r="I99" s="3">
         <v>44191.9458333333</v>
       </c>
-      <c r="J99" s="3">
+      <c r="J99" s="4">
         <v>2495</v>
       </c>
-      <c r="K99" s="3">
+      <c r="K99" s="4">
         <v>2757</v>
       </c>
       <c r="L99" s="1">
@@ -6548,54 +6563,54 @@
       <c r="H100" s="1">
         <v>0.01</v>
       </c>
-      <c r="I100" s="2">
+      <c r="I100" s="3">
         <v>44223.5590277778</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="4">
         <v>8665</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="4">
         <v>18571</v>
       </c>
       <c r="L100" s="1">
         <v>10469</v>
       </c>
     </row>
-    <row r="101" s="1" customFormat="1" spans="1:12">
-      <c r="A101" s="1">
+    <row r="101" s="2" customFormat="1" spans="1:12">
+      <c r="A101" s="2">
         <v>100</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="2">
         <v>69</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101" s="2">
         <v>110321</v>
       </c>
-      <c r="E101" s="1">
+      <c r="E101" s="2">
         <v>22</v>
       </c>
-      <c r="F101" s="1">
+      <c r="F101" s="2">
         <v>0.07</v>
       </c>
-      <c r="G101" s="1">
+      <c r="G101" s="2">
         <v>22</v>
       </c>
-      <c r="H101" s="1">
+      <c r="H101" s="2">
         <v>0.08</v>
       </c>
-      <c r="I101" s="2">
+      <c r="I101" s="5">
         <v>43177.0006944444</v>
       </c>
-      <c r="J101" s="1">
+      <c r="J101" s="2">
         <v>526</v>
       </c>
-      <c r="K101" s="1">
+      <c r="K101" s="2">
         <v>323</v>
       </c>
-      <c r="L101" s="1">
+      <c r="L101" s="2">
         <v>5333</v>
       </c>
     </row>
@@ -6624,7 +6639,7 @@
       <c r="H102" s="1">
         <v>0.03</v>
       </c>
-      <c r="I102" s="2">
+      <c r="I102" s="3">
         <v>43454.8791666667</v>
       </c>
       <c r="J102" s="1">
@@ -6662,10 +6677,10 @@
       <c r="H103" s="1">
         <v>0</v>
       </c>
-      <c r="I103" s="2">
+      <c r="I103" s="3">
         <v>43218.7055555556</v>
       </c>
-      <c r="J103" s="3">
+      <c r="J103" s="4">
         <v>4395</v>
       </c>
       <c r="K103" s="1">
@@ -6700,13 +6715,13 @@
       <c r="H104" s="1">
         <v>0.02</v>
       </c>
-      <c r="I104" s="2">
+      <c r="I104" s="3">
         <v>43801.25625</v>
       </c>
-      <c r="J104" s="3">
+      <c r="J104" s="4">
         <v>1585</v>
       </c>
-      <c r="K104" s="3">
+      <c r="K104" s="4">
         <v>4006</v>
       </c>
       <c r="L104" s="1">
@@ -6738,13 +6753,13 @@
       <c r="H105" s="1">
         <v>0.01</v>
       </c>
-      <c r="I105" s="2">
+      <c r="I105" s="3">
         <v>43224.9215277778</v>
       </c>
-      <c r="J105" s="3">
+      <c r="J105" s="4">
         <v>11962</v>
       </c>
-      <c r="K105" s="3">
+      <c r="K105" s="4">
         <v>43488</v>
       </c>
       <c r="L105" s="1">
@@ -6776,13 +6791,13 @@
       <c r="H106" s="1">
         <v>0</v>
       </c>
-      <c r="I106" s="2">
+      <c r="I106" s="3">
         <v>43878.3840277778</v>
       </c>
-      <c r="J106" s="3">
+      <c r="J106" s="4">
         <v>4746</v>
       </c>
-      <c r="K106" s="3">
+      <c r="K106" s="4">
         <v>4755</v>
       </c>
       <c r="L106" s="1">
@@ -6814,13 +6829,13 @@
       <c r="H107" s="1">
         <v>0.01</v>
       </c>
-      <c r="I107" s="2">
+      <c r="I107" s="3">
         <v>43992.2069444444</v>
       </c>
-      <c r="J107" s="3">
+      <c r="J107" s="4">
         <v>2046</v>
       </c>
-      <c r="K107" s="3">
+      <c r="K107" s="4">
         <v>1963</v>
       </c>
       <c r="L107" s="1">
@@ -6852,13 +6867,13 @@
       <c r="H108" s="1">
         <v>0</v>
       </c>
-      <c r="I108" s="2">
+      <c r="I108" s="3">
         <v>44205.7777777778</v>
       </c>
-      <c r="J108" s="3">
+      <c r="J108" s="4">
         <v>3245</v>
       </c>
-      <c r="K108" s="3">
+      <c r="K108" s="4">
         <v>4128</v>
       </c>
       <c r="L108" s="1">
@@ -6890,7 +6905,7 @@
       <c r="H109" s="1">
         <v>0</v>
       </c>
-      <c r="I109" s="2">
+      <c r="I109" s="3">
         <v>43587.2166666667</v>
       </c>
       <c r="J109" s="1">
@@ -6928,10 +6943,10 @@
       <c r="H110" s="1">
         <v>0</v>
       </c>
-      <c r="I110" s="2">
+      <c r="I110" s="3">
         <v>43685.5118055556</v>
       </c>
-      <c r="J110" s="3">
+      <c r="J110" s="4">
         <v>2004</v>
       </c>
       <c r="K110" s="1">
@@ -6966,10 +6981,10 @@
       <c r="H111" s="1">
         <v>0</v>
       </c>
-      <c r="I111" s="2">
+      <c r="I111" s="3">
         <v>43922.3256944444</v>
       </c>
-      <c r="J111" s="3">
+      <c r="J111" s="4">
         <v>7156</v>
       </c>
       <c r="K111" s="1">
@@ -7004,7 +7019,7 @@
       <c r="H112" s="1">
         <v>0</v>
       </c>
-      <c r="I112" s="2">
+      <c r="I112" s="3">
         <v>43202.8958333333</v>
       </c>
       <c r="J112" s="1">
@@ -7042,13 +7057,13 @@
       <c r="H113" s="1">
         <v>0</v>
       </c>
-      <c r="I113" s="2">
+      <c r="I113" s="3">
         <v>44094.1784722222</v>
       </c>
-      <c r="J113" s="3">
+      <c r="J113" s="4">
         <v>4655</v>
       </c>
-      <c r="K113" s="3">
+      <c r="K113" s="4">
         <v>5026</v>
       </c>
       <c r="L113" s="1">
@@ -7080,13 +7095,13 @@
       <c r="H114" s="1">
         <v>0</v>
       </c>
-      <c r="I114" s="2">
+      <c r="I114" s="3">
         <v>44218.7659722222</v>
       </c>
-      <c r="J114" s="3">
+      <c r="J114" s="4">
         <v>3622</v>
       </c>
-      <c r="K114" s="3">
+      <c r="K114" s="4">
         <v>1781</v>
       </c>
       <c r="L114" s="1">
@@ -7118,13 +7133,13 @@
       <c r="H115" s="1">
         <v>0.02</v>
       </c>
-      <c r="I115" s="2">
+      <c r="I115" s="3">
         <v>43675.0944444444</v>
       </c>
       <c r="J115" s="1">
         <v>540</v>
       </c>
-      <c r="K115" s="3">
+      <c r="K115" s="4">
         <v>20122</v>
       </c>
       <c r="L115" s="1">
@@ -7156,10 +7171,10 @@
       <c r="H116" s="1">
         <v>0</v>
       </c>
-      <c r="I116" s="2">
+      <c r="I116" s="3">
         <v>44215.6506944444</v>
       </c>
-      <c r="J116" s="3">
+      <c r="J116" s="4">
         <v>1634</v>
       </c>
       <c r="K116" s="1">
@@ -7194,10 +7209,10 @@
       <c r="H117" s="1">
         <v>0.01</v>
       </c>
-      <c r="I117" s="2">
+      <c r="I117" s="3">
         <v>44212.3569444444</v>
       </c>
-      <c r="J117" s="3">
+      <c r="J117" s="4">
         <v>1759</v>
       </c>
       <c r="K117" s="1">
@@ -7232,13 +7247,13 @@
       <c r="H118" s="1">
         <v>0.03</v>
       </c>
-      <c r="I118" s="2">
+      <c r="I118" s="3">
         <v>43603.6513888889</v>
       </c>
       <c r="J118" s="1">
         <v>525</v>
       </c>
-      <c r="K118" s="3">
+      <c r="K118" s="4">
         <v>17487</v>
       </c>
       <c r="L118" s="1">
@@ -7270,13 +7285,13 @@
       <c r="H119" s="1">
         <v>0</v>
       </c>
-      <c r="I119" s="2">
+      <c r="I119" s="3">
         <v>43271.4916666667</v>
       </c>
-      <c r="J119" s="3">
+      <c r="J119" s="4">
         <v>6106</v>
       </c>
-      <c r="K119" s="3">
+      <c r="K119" s="4">
         <v>3339</v>
       </c>
       <c r="L119" s="1">
@@ -7308,7 +7323,7 @@
       <c r="H120" s="1">
         <v>0</v>
       </c>
-      <c r="I120" s="2">
+      <c r="I120" s="3">
         <v>44163.1284722222</v>
       </c>
       <c r="J120" s="1">
@@ -7346,13 +7361,13 @@
       <c r="H121" s="1">
         <v>0</v>
       </c>
-      <c r="I121" s="2">
+      <c r="I121" s="3">
         <v>44069.5472222222</v>
       </c>
-      <c r="J121" s="3">
+      <c r="J121" s="4">
         <v>16355</v>
       </c>
-      <c r="K121" s="3">
+      <c r="K121" s="4">
         <v>2221</v>
       </c>
       <c r="L121" s="1">
@@ -7384,13 +7399,13 @@
       <c r="H122" s="1">
         <v>0</v>
       </c>
-      <c r="I122" s="2">
+      <c r="I122" s="3">
         <v>44049.3486111111</v>
       </c>
-      <c r="J122" s="3">
+      <c r="J122" s="4">
         <v>2849</v>
       </c>
-      <c r="K122" s="3">
+      <c r="K122" s="4">
         <v>1022</v>
       </c>
       <c r="L122" s="1">
@@ -7422,13 +7437,13 @@
       <c r="H123" s="1">
         <v>0.05</v>
       </c>
-      <c r="I123" s="2">
+      <c r="I123" s="3">
         <v>43337.8458333333</v>
       </c>
-      <c r="J123" s="3">
+      <c r="J123" s="4">
         <v>4389</v>
       </c>
-      <c r="K123" s="3">
+      <c r="K123" s="4">
         <v>113720</v>
       </c>
       <c r="L123" s="1">
@@ -7460,10 +7475,10 @@
       <c r="H124" s="1">
         <v>0</v>
       </c>
-      <c r="I124" s="2">
+      <c r="I124" s="3">
         <v>44214.7819444444</v>
       </c>
-      <c r="J124" s="3">
+      <c r="J124" s="4">
         <v>1391</v>
       </c>
       <c r="K124" s="1">
@@ -7498,54 +7513,54 @@
       <c r="H125" s="1">
         <v>0.09</v>
       </c>
-      <c r="I125" s="2">
+      <c r="I125" s="3">
         <v>43660.5111111111</v>
       </c>
       <c r="J125" s="1">
         <v>697</v>
       </c>
-      <c r="K125" s="3">
+      <c r="K125" s="4">
         <v>4261</v>
       </c>
       <c r="L125" s="1">
         <v>155</v>
       </c>
     </row>
-    <row r="126" s="1" customFormat="1" spans="1:12">
-      <c r="A126" s="1">
+    <row r="126" s="2" customFormat="1" spans="1:12">
+      <c r="A126" s="2">
         <v>125</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C126" s="2">
         <v>58</v>
       </c>
-      <c r="D126" s="1">
+      <c r="D126" s="2">
         <v>282885</v>
       </c>
-      <c r="E126" s="1">
+      <c r="E126" s="2">
         <v>26973</v>
       </c>
-      <c r="F126" s="1">
+      <c r="F126" s="2">
         <v>90</v>
       </c>
-      <c r="G126" s="1">
+      <c r="G126" s="2">
         <v>26973</v>
       </c>
-      <c r="H126" s="1">
+      <c r="H126" s="2">
         <v>96</v>
       </c>
-      <c r="I126" s="2">
+      <c r="I126" s="5">
         <v>41980.5097222222</v>
       </c>
-      <c r="J126" s="3">
+      <c r="J126" s="6">
         <v>3982</v>
       </c>
-      <c r="K126" s="3">
+      <c r="K126" s="6">
         <v>10108</v>
       </c>
-      <c r="L126" s="1">
+      <c r="L126" s="2">
         <v>62804</v>
       </c>
     </row>
@@ -7574,13 +7589,13 @@
       <c r="H127" s="1">
         <v>0</v>
       </c>
-      <c r="I127" s="2">
+      <c r="I127" s="3">
         <v>43902.6979166667</v>
       </c>
-      <c r="J127" s="3">
+      <c r="J127" s="4">
         <v>3346</v>
       </c>
-      <c r="K127" s="3">
+      <c r="K127" s="4">
         <v>1364</v>
       </c>
       <c r="L127" s="1">
@@ -7612,10 +7627,10 @@
       <c r="H128" s="1">
         <v>0</v>
       </c>
-      <c r="I128" s="2">
+      <c r="I128" s="3">
         <v>44173.3180555556</v>
       </c>
-      <c r="J128" s="3">
+      <c r="J128" s="4">
         <v>1097</v>
       </c>
       <c r="K128" s="1">
@@ -7650,13 +7665,13 @@
       <c r="H129" s="1">
         <v>0.02</v>
       </c>
-      <c r="I129" s="2">
+      <c r="I129" s="3">
         <v>43068.9138888889</v>
       </c>
       <c r="J129" s="1">
         <v>427</v>
       </c>
-      <c r="K129" s="3">
+      <c r="K129" s="4">
         <v>2667</v>
       </c>
       <c r="L129" s="1">
@@ -7688,13 +7703,13 @@
       <c r="H130" s="1">
         <v>0</v>
       </c>
-      <c r="I130" s="2">
+      <c r="I130" s="3">
         <v>44212.2576388889</v>
       </c>
       <c r="J130" s="1">
         <v>512</v>
       </c>
-      <c r="K130" s="3">
+      <c r="K130" s="4">
         <v>28180</v>
       </c>
       <c r="L130" s="1">
@@ -7726,13 +7741,13 @@
       <c r="H131" s="1">
         <v>0.01</v>
       </c>
-      <c r="I131" s="2">
+      <c r="I131" s="3">
         <v>44220.0409722222</v>
       </c>
-      <c r="J131" s="3">
+      <c r="J131" s="4">
         <v>3855</v>
       </c>
-      <c r="K131" s="3">
+      <c r="K131" s="4">
         <v>51765</v>
       </c>
       <c r="L131" s="1">
@@ -7764,7 +7779,7 @@
       <c r="H132" s="1">
         <v>0</v>
       </c>
-      <c r="I132" s="2">
+      <c r="I132" s="3">
         <v>43775.3506944444</v>
       </c>
       <c r="J132" s="1">
@@ -7802,7 +7817,7 @@
       <c r="H133" s="1">
         <v>0.04</v>
       </c>
-      <c r="I133" s="2">
+      <c r="I133" s="3">
         <v>44126.6194444444</v>
       </c>
       <c r="J133" s="1">
@@ -7840,13 +7855,13 @@
       <c r="H134" s="1">
         <v>0</v>
       </c>
-      <c r="I134" s="2">
+      <c r="I134" s="3">
         <v>44156.5583333333</v>
       </c>
-      <c r="J134" s="3">
+      <c r="J134" s="4">
         <v>2650</v>
       </c>
-      <c r="K134" s="3">
+      <c r="K134" s="4">
         <v>4224</v>
       </c>
       <c r="L134" s="1">
@@ -7878,7 +7893,7 @@
       <c r="H135" s="1">
         <v>0</v>
       </c>
-      <c r="I135" s="2">
+      <c r="I135" s="3">
         <v>43064.7090277778</v>
       </c>
       <c r="J135" s="1">
@@ -7916,13 +7931,13 @@
       <c r="H136" s="1">
         <v>0.01</v>
       </c>
-      <c r="I136" s="2">
+      <c r="I136" s="3">
         <v>43986.4680555556</v>
       </c>
       <c r="J136" s="1">
         <v>969</v>
       </c>
-      <c r="K136" s="3">
+      <c r="K136" s="4">
         <v>5578</v>
       </c>
       <c r="L136" s="1">
@@ -7954,13 +7969,13 @@
       <c r="H137" s="1">
         <v>0</v>
       </c>
-      <c r="I137" s="2">
+      <c r="I137" s="3">
         <v>44035.9166666667</v>
       </c>
-      <c r="J137" s="3">
+      <c r="J137" s="4">
         <v>13013</v>
       </c>
-      <c r="K137" s="3">
+      <c r="K137" s="4">
         <v>1225</v>
       </c>
       <c r="L137" s="1">
@@ -7992,10 +8007,10 @@
       <c r="H138" s="1">
         <v>0</v>
       </c>
-      <c r="I138" s="2">
+      <c r="I138" s="3">
         <v>43884.9736111111</v>
       </c>
-      <c r="J138" s="3">
+      <c r="J138" s="4">
         <v>7437</v>
       </c>
       <c r="K138" s="1">
@@ -8030,7 +8045,7 @@
       <c r="H139" s="1">
         <v>0</v>
       </c>
-      <c r="I139" s="2">
+      <c r="I139" s="3">
         <v>44226.1048611111</v>
       </c>
       <c r="J139" s="1">
@@ -8068,10 +8083,10 @@
       <c r="H140" s="1">
         <v>0.01</v>
       </c>
-      <c r="I140" s="2">
+      <c r="I140" s="3">
         <v>43916.3993055556</v>
       </c>
-      <c r="J140" s="3">
+      <c r="J140" s="4">
         <v>7375</v>
       </c>
       <c r="K140" s="1">
@@ -8106,13 +8121,13 @@
       <c r="H141" s="1">
         <v>0.01</v>
       </c>
-      <c r="I141" s="2">
+      <c r="I141" s="3">
         <v>43223.3527777778</v>
       </c>
       <c r="J141" s="1">
         <v>555</v>
       </c>
-      <c r="K141" s="3">
+      <c r="K141" s="4">
         <v>16698</v>
       </c>
       <c r="L141" s="1">
@@ -8144,13 +8159,13 @@
       <c r="H142" s="1">
         <v>0</v>
       </c>
-      <c r="I142" s="2">
+      <c r="I142" s="3">
         <v>44026.4972222222</v>
       </c>
-      <c r="J142" s="3">
+      <c r="J142" s="4">
         <v>4243</v>
       </c>
-      <c r="K142" s="3">
+      <c r="K142" s="4">
         <v>5575</v>
       </c>
       <c r="L142" s="1">
@@ -8182,7 +8197,7 @@
       <c r="H143" s="1">
         <v>0</v>
       </c>
-      <c r="I143" s="2">
+      <c r="I143" s="3">
         <v>43987.6944444444</v>
       </c>
       <c r="J143" s="1">
@@ -8220,7 +8235,7 @@
       <c r="H144" s="1">
         <v>0</v>
       </c>
-      <c r="I144" s="2">
+      <c r="I144" s="3">
         <v>42899.5354166667</v>
       </c>
       <c r="J144" s="1">
@@ -8258,7 +8273,7 @@
       <c r="H145" s="1">
         <v>0</v>
       </c>
-      <c r="I145" s="2">
+      <c r="I145" s="3">
         <v>44197.7826388889</v>
       </c>
       <c r="J145" s="1">
@@ -8296,13 +8311,13 @@
       <c r="H146" s="1">
         <v>0</v>
       </c>
-      <c r="I146" s="2">
+      <c r="I146" s="3">
         <v>43878.1965277778</v>
       </c>
       <c r="J146" s="1">
         <v>487</v>
       </c>
-      <c r="K146" s="3">
+      <c r="K146" s="4">
         <v>1063</v>
       </c>
       <c r="L146" s="1">
@@ -8334,13 +8349,13 @@
       <c r="H147" s="1">
         <v>0.01</v>
       </c>
-      <c r="I147" s="2">
+      <c r="I147" s="3">
         <v>42494.2791666667</v>
       </c>
       <c r="J147" s="1">
         <v>670</v>
       </c>
-      <c r="K147" s="3">
+      <c r="K147" s="4">
         <v>4030</v>
       </c>
       <c r="L147" s="1">
@@ -8372,7 +8387,7 @@
       <c r="H148" s="1">
         <v>0.01</v>
       </c>
-      <c r="I148" s="2">
+      <c r="I148" s="3">
         <v>44138.2840277778</v>
       </c>
       <c r="J148" s="1">
@@ -8410,10 +8425,10 @@
       <c r="H149" s="1">
         <v>0</v>
       </c>
-      <c r="I149" s="2">
+      <c r="I149" s="3">
         <v>43794.7819444444</v>
       </c>
-      <c r="J149" s="3">
+      <c r="J149" s="4">
         <v>1594</v>
       </c>
       <c r="K149" s="1">
@@ -8448,7 +8463,7 @@
       <c r="H150" s="1">
         <v>0</v>
       </c>
-      <c r="I150" s="2">
+      <c r="I150" s="3">
         <v>44055.9444444444</v>
       </c>
       <c r="J150" s="1">
@@ -8486,10 +8501,10 @@
       <c r="H151" s="1">
         <v>0</v>
       </c>
-      <c r="I151" s="2">
+      <c r="I151" s="3">
         <v>43543.8138888889</v>
       </c>
-      <c r="J151" s="3">
+      <c r="J151" s="4">
         <v>1079</v>
       </c>
       <c r="K151" s="1">
@@ -8524,13 +8539,13 @@
       <c r="H152" s="1">
         <v>0</v>
       </c>
-      <c r="I152" s="2">
+      <c r="I152" s="3">
         <v>43626.5833333333</v>
       </c>
       <c r="J152" s="1">
         <v>991</v>
       </c>
-      <c r="K152" s="3">
+      <c r="K152" s="4">
         <v>94984</v>
       </c>
       <c r="L152" s="1">
@@ -8562,7 +8577,7 @@
       <c r="H153" s="1">
         <v>0</v>
       </c>
-      <c r="I153" s="2">
+      <c r="I153" s="3">
         <v>43517.5291666667</v>
       </c>
       <c r="J153" s="1">
@@ -8600,13 +8615,13 @@
       <c r="H154" s="1">
         <v>0.02</v>
       </c>
-      <c r="I154" s="2">
+      <c r="I154" s="3">
         <v>43990.1972222222</v>
       </c>
-      <c r="J154" s="3">
+      <c r="J154" s="4">
         <v>3847</v>
       </c>
-      <c r="K154" s="3">
+      <c r="K154" s="4">
         <v>67686</v>
       </c>
       <c r="L154" s="1">
@@ -8638,7 +8653,7 @@
       <c r="H155" s="1">
         <v>0</v>
       </c>
-      <c r="I155" s="2">
+      <c r="I155" s="3">
         <v>43849.5493055556</v>
       </c>
       <c r="J155" s="1">
@@ -8676,10 +8691,10 @@
       <c r="H156" s="1">
         <v>0</v>
       </c>
-      <c r="I156" s="2">
+      <c r="I156" s="3">
         <v>44048.4131944444</v>
       </c>
-      <c r="J156" s="3">
+      <c r="J156" s="4">
         <v>1315</v>
       </c>
       <c r="K156" s="1">
@@ -8714,13 +8729,13 @@
       <c r="H157" s="1">
         <v>0.43</v>
       </c>
-      <c r="I157" s="2">
+      <c r="I157" s="3">
         <v>43821.7493055556</v>
       </c>
       <c r="J157" s="1">
         <v>618</v>
       </c>
-      <c r="K157" s="3">
+      <c r="K157" s="4">
         <v>2290</v>
       </c>
       <c r="L157" s="1">
@@ -8752,7 +8767,7 @@
       <c r="H158" s="1">
         <v>0.01</v>
       </c>
-      <c r="I158" s="2">
+      <c r="I158" s="3">
         <v>43074.3277777778</v>
       </c>
       <c r="J158" s="1">
@@ -8790,10 +8805,10 @@
       <c r="H159" s="1">
         <v>0</v>
       </c>
-      <c r="I159" s="2">
+      <c r="I159" s="3">
         <v>44212.5465277778</v>
       </c>
-      <c r="J159" s="3">
+      <c r="J159" s="4">
         <v>1987</v>
       </c>
       <c r="K159" s="1">
@@ -8828,7 +8843,7 @@
       <c r="H160" s="1">
         <v>0</v>
       </c>
-      <c r="I160" s="2">
+      <c r="I160" s="3">
         <v>44146.7541666667</v>
       </c>
       <c r="J160" s="1">
@@ -8866,7 +8881,7 @@
       <c r="H161" s="1">
         <v>0</v>
       </c>
-      <c r="I161" s="2">
+      <c r="I161" s="3">
         <v>43394.01875</v>
       </c>
       <c r="J161" s="1">
@@ -8904,13 +8919,13 @@
       <c r="H162" s="1">
         <v>0.01</v>
       </c>
-      <c r="I162" s="2">
+      <c r="I162" s="3">
         <v>43829.61875</v>
       </c>
       <c r="J162" s="1">
         <v>291</v>
       </c>
-      <c r="K162" s="3">
+      <c r="K162" s="4">
         <v>1256</v>
       </c>
       <c r="L162" s="1">
@@ -8942,7 +8957,7 @@
       <c r="H163" s="1">
         <v>0</v>
       </c>
-      <c r="I163" s="2">
+      <c r="I163" s="3">
         <v>43865.4090277778</v>
       </c>
       <c r="J163" s="1">
@@ -8980,7 +8995,7 @@
       <c r="H164" s="1">
         <v>0</v>
       </c>
-      <c r="I164" s="2">
+      <c r="I164" s="3">
         <v>44188.1722222222</v>
       </c>
       <c r="J164" s="1">
@@ -9018,13 +9033,13 @@
       <c r="H165" s="1">
         <v>0</v>
       </c>
-      <c r="I165" s="2">
+      <c r="I165" s="3">
         <v>44141.54375</v>
       </c>
       <c r="J165" s="1">
         <v>93</v>
       </c>
-      <c r="K165" s="3">
+      <c r="K165" s="4">
         <v>12566</v>
       </c>
       <c r="L165" s="1">
@@ -9056,7 +9071,7 @@
       <c r="H166" s="1">
         <v>0</v>
       </c>
-      <c r="I166" s="2">
+      <c r="I166" s="3">
         <v>43215.5833333333</v>
       </c>
       <c r="J166" s="1">
@@ -9094,13 +9109,13 @@
       <c r="H167" s="1">
         <v>0</v>
       </c>
-      <c r="I167" s="2">
+      <c r="I167" s="3">
         <v>44061.0875</v>
       </c>
       <c r="J167" s="1">
         <v>894</v>
       </c>
-      <c r="K167" s="3">
+      <c r="K167" s="4">
         <v>33595</v>
       </c>
       <c r="L167" s="1">
@@ -9132,10 +9147,10 @@
       <c r="H168" s="1">
         <v>0</v>
       </c>
-      <c r="I168" s="2">
+      <c r="I168" s="3">
         <v>44083.2777777778</v>
       </c>
-      <c r="J168" s="3">
+      <c r="J168" s="4">
         <v>11218</v>
       </c>
       <c r="K168" s="1">
@@ -9170,7 +9185,7 @@
       <c r="H169" s="1">
         <v>0</v>
       </c>
-      <c r="I169" s="2">
+      <c r="I169" s="3">
         <v>43546.6770833333</v>
       </c>
       <c r="J169" s="1">
@@ -9208,7 +9223,7 @@
       <c r="H170" s="1">
         <v>0</v>
       </c>
-      <c r="I170" s="2">
+      <c r="I170" s="3">
         <v>43511.1756944444</v>
       </c>
       <c r="J170" s="1">
@@ -9246,10 +9261,10 @@
       <c r="H171" s="1">
         <v>0</v>
       </c>
-      <c r="I171" s="2">
+      <c r="I171" s="3">
         <v>44137.9875</v>
       </c>
-      <c r="J171" s="3">
+      <c r="J171" s="4">
         <v>4392</v>
       </c>
       <c r="K171" s="1">
@@ -9284,13 +9299,13 @@
       <c r="H172" s="1">
         <v>0.02</v>
       </c>
-      <c r="I172" s="2">
+      <c r="I172" s="3">
         <v>44157.4416666667</v>
       </c>
       <c r="J172" s="1">
         <v>333</v>
       </c>
-      <c r="K172" s="3">
+      <c r="K172" s="4">
         <v>31160</v>
       </c>
       <c r="L172" s="1">
@@ -9322,13 +9337,13 @@
       <c r="H173" s="1">
         <v>0</v>
       </c>
-      <c r="I173" s="2">
+      <c r="I173" s="3">
         <v>43805.1555555556</v>
       </c>
       <c r="J173" s="1">
         <v>462</v>
       </c>
-      <c r="K173" s="3">
+      <c r="K173" s="4">
         <v>4625</v>
       </c>
       <c r="L173" s="1">
@@ -9360,7 +9375,7 @@
       <c r="H174" s="1">
         <v>0</v>
       </c>
-      <c r="I174" s="2">
+      <c r="I174" s="3">
         <v>44058.9659722222</v>
       </c>
       <c r="J174" s="1">
@@ -9398,7 +9413,7 @@
       <c r="H175" s="1">
         <v>0</v>
       </c>
-      <c r="I175" s="2">
+      <c r="I175" s="3">
         <v>43910.7166666667</v>
       </c>
       <c r="J175" s="1">
@@ -9436,7 +9451,7 @@
       <c r="H176" s="1">
         <v>0.01</v>
       </c>
-      <c r="I176" s="2">
+      <c r="I176" s="3">
         <v>43217.3659722222</v>
       </c>
       <c r="J176" s="1">
@@ -9474,7 +9489,7 @@
       <c r="H177" s="1">
         <v>0</v>
       </c>
-      <c r="I177" s="2">
+      <c r="I177" s="3">
         <v>44058.39375</v>
       </c>
       <c r="J177" s="1">
@@ -9512,7 +9527,7 @@
       <c r="H178" s="1">
         <v>0</v>
       </c>
-      <c r="I178" s="2">
+      <c r="I178" s="3">
         <v>44214.3409722222</v>
       </c>
       <c r="J178" s="1">
@@ -9550,13 +9565,13 @@
       <c r="H179" s="1">
         <v>0</v>
       </c>
-      <c r="I179" s="2">
+      <c r="I179" s="3">
         <v>44028.2236111111</v>
       </c>
-      <c r="J179" s="3">
+      <c r="J179" s="4">
         <v>1808</v>
       </c>
-      <c r="K179" s="3">
+      <c r="K179" s="4">
         <v>1611</v>
       </c>
       <c r="L179" s="1">
@@ -9588,7 +9603,7 @@
       <c r="H180" s="1">
         <v>0</v>
       </c>
-      <c r="I180" s="2">
+      <c r="I180" s="3">
         <v>43992.6881944444</v>
       </c>
       <c r="J180" s="1">
@@ -9626,13 +9641,13 @@
       <c r="H181" s="1">
         <v>0</v>
       </c>
-      <c r="I181" s="2">
+      <c r="I181" s="3">
         <v>43382.4361111111</v>
       </c>
       <c r="J181" s="1">
         <v>424</v>
       </c>
-      <c r="K181" s="3">
+      <c r="K181" s="4">
         <v>11897</v>
       </c>
       <c r="L181" s="1">
@@ -9664,13 +9679,13 @@
       <c r="H182" s="1">
         <v>0</v>
       </c>
-      <c r="I182" s="2">
+      <c r="I182" s="3">
         <v>44223.5305555556</v>
       </c>
-      <c r="J182" s="3">
+      <c r="J182" s="4">
         <v>1065</v>
       </c>
-      <c r="K182" s="3">
+      <c r="K182" s="4">
         <v>3543</v>
       </c>
       <c r="L182" s="1">
@@ -9702,10 +9717,10 @@
       <c r="H183" s="1">
         <v>0</v>
       </c>
-      <c r="I183" s="2">
+      <c r="I183" s="3">
         <v>43720.4576388889</v>
       </c>
-      <c r="J183" s="3">
+      <c r="J183" s="4">
         <v>1387</v>
       </c>
       <c r="K183" s="1">
@@ -9740,13 +9755,13 @@
       <c r="H184" s="1">
         <v>0.02</v>
       </c>
-      <c r="I184" s="2">
+      <c r="I184" s="3">
         <v>43425.3826388889</v>
       </c>
       <c r="J184" s="1">
         <v>133</v>
       </c>
-      <c r="K184" s="3">
+      <c r="K184" s="4">
         <v>1119</v>
       </c>
       <c r="L184" s="1">
@@ -9778,7 +9793,7 @@
       <c r="H185" s="1">
         <v>0</v>
       </c>
-      <c r="I185" s="2">
+      <c r="I185" s="3">
         <v>44229.7527777778</v>
       </c>
       <c r="J185" s="1">
@@ -9816,13 +9831,13 @@
       <c r="H186" s="1">
         <v>0</v>
       </c>
-      <c r="I186" s="2">
+      <c r="I186" s="3">
         <v>44193.8840277778</v>
       </c>
       <c r="J186" s="1">
         <v>235</v>
       </c>
-      <c r="K186" s="3">
+      <c r="K186" s="4">
         <v>373911</v>
       </c>
       <c r="L186" s="1">
@@ -9854,7 +9869,7 @@
       <c r="H187" s="1">
         <v>0</v>
       </c>
-      <c r="I187" s="2">
+      <c r="I187" s="3">
         <v>44062.4840277778</v>
       </c>
       <c r="J187" s="1">
@@ -9892,13 +9907,13 @@
       <c r="H188" s="1">
         <v>0</v>
       </c>
-      <c r="I188" s="2">
+      <c r="I188" s="3">
         <v>43454.9291666667</v>
       </c>
       <c r="J188" s="1">
         <v>607</v>
       </c>
-      <c r="K188" s="3">
+      <c r="K188" s="4">
         <v>1831</v>
       </c>
       <c r="L188" s="1">
@@ -9930,7 +9945,7 @@
       <c r="H189" s="1">
         <v>0.01</v>
       </c>
-      <c r="I189" s="2">
+      <c r="I189" s="3">
         <v>44214.0652777778</v>
       </c>
       <c r="J189" s="1">
@@ -9968,7 +9983,7 @@
       <c r="H190" s="1">
         <v>0</v>
       </c>
-      <c r="I190" s="2">
+      <c r="I190" s="3">
         <v>43892.1145833333</v>
       </c>
       <c r="J190" s="1">
@@ -10006,7 +10021,7 @@
       <c r="H191" s="1">
         <v>0</v>
       </c>
-      <c r="I191" s="2">
+      <c r="I191" s="3">
         <v>44214.2340277778</v>
       </c>
       <c r="J191" s="1">
@@ -10044,13 +10059,13 @@
       <c r="H192" s="1">
         <v>0</v>
       </c>
-      <c r="I192" s="2">
+      <c r="I192" s="3">
         <v>44012.2326388889</v>
       </c>
-      <c r="J192" s="3">
+      <c r="J192" s="4">
         <v>1793</v>
       </c>
-      <c r="K192" s="3">
+      <c r="K192" s="4">
         <v>2947</v>
       </c>
       <c r="L192" s="1">
@@ -10082,7 +10097,7 @@
       <c r="H193" s="1">
         <v>0</v>
       </c>
-      <c r="I193" s="2">
+      <c r="I193" s="3">
         <v>44014.5604166667</v>
       </c>
       <c r="J193" s="1">
@@ -10120,7 +10135,7 @@
       <c r="H194" s="1">
         <v>0</v>
       </c>
-      <c r="I194" s="2">
+      <c r="I194" s="3">
         <v>44100.4013888889</v>
       </c>
       <c r="J194" s="1">
@@ -10158,7 +10173,7 @@
       <c r="H195" s="1">
         <v>0</v>
       </c>
-      <c r="I195" s="2">
+      <c r="I195" s="3">
         <v>43990.8215277778</v>
       </c>
       <c r="J195" s="1">
@@ -10196,7 +10211,7 @@
       <c r="H196" s="1">
         <v>0</v>
       </c>
-      <c r="I196" s="2">
+      <c r="I196" s="3">
         <v>43972.7152777778</v>
       </c>
       <c r="J196" s="1">
@@ -10234,13 +10249,13 @@
       <c r="H197" s="1">
         <v>0.01</v>
       </c>
-      <c r="I197" s="2">
+      <c r="I197" s="3">
         <v>43742.7548611111</v>
       </c>
-      <c r="J197" s="3">
+      <c r="J197" s="4">
         <v>1046</v>
       </c>
-      <c r="K197" s="3">
+      <c r="K197" s="4">
         <v>1709</v>
       </c>
       <c r="L197" s="1">
@@ -10272,10 +10287,10 @@
       <c r="H198" s="1">
         <v>0</v>
       </c>
-      <c r="I198" s="2">
+      <c r="I198" s="3">
         <v>44169.4743055556</v>
       </c>
-      <c r="J198" s="3">
+      <c r="J198" s="4">
         <v>1430</v>
       </c>
       <c r="K198" s="1">
@@ -10310,13 +10325,13 @@
       <c r="H199" s="1">
         <v>0</v>
       </c>
-      <c r="I199" s="2">
+      <c r="I199" s="3">
         <v>44001.8104166667</v>
       </c>
       <c r="J199" s="1">
         <v>235</v>
       </c>
-      <c r="K199" s="3">
+      <c r="K199" s="4">
         <v>14083</v>
       </c>
       <c r="L199" s="1">
@@ -10348,7 +10363,7 @@
       <c r="H200" s="1">
         <v>0.01</v>
       </c>
-      <c r="I200" s="2">
+      <c r="I200" s="3">
         <v>44215.5375</v>
       </c>
       <c r="J200" s="1">
@@ -10386,13 +10401,13 @@
       <c r="H201" s="1">
         <v>0.01</v>
       </c>
-      <c r="I201" s="2">
+      <c r="I201" s="3">
         <v>44212.9506944444</v>
       </c>
       <c r="J201" s="1">
         <v>263</v>
       </c>
-      <c r="K201" s="3">
+      <c r="K201" s="4">
         <v>1228</v>
       </c>
       <c r="L201" s="1">
@@ -10424,13 +10439,13 @@
       <c r="H202" s="1">
         <v>0</v>
       </c>
-      <c r="I202" s="2">
+      <c r="I202" s="3">
         <v>44017.4777777778</v>
       </c>
       <c r="J202" s="1">
         <v>580</v>
       </c>
-      <c r="K202" s="3">
+      <c r="K202" s="4">
         <v>37131</v>
       </c>
       <c r="L202" s="1">
@@ -10462,7 +10477,7 @@
       <c r="H203" s="1">
         <v>0</v>
       </c>
-      <c r="I203" s="2">
+      <c r="I203" s="3">
         <v>43994.0791666667</v>
       </c>
       <c r="J203" s="1">
@@ -10500,13 +10515,13 @@
       <c r="H204" s="1">
         <v>0.01</v>
       </c>
-      <c r="I204" s="2">
+      <c r="I204" s="3">
         <v>43891.5951388889</v>
       </c>
       <c r="J204" s="1">
         <v>112</v>
       </c>
-      <c r="K204" s="3">
+      <c r="K204" s="4">
         <v>2912</v>
       </c>
       <c r="L204" s="1">
@@ -10538,10 +10553,10 @@
       <c r="H205" s="1">
         <v>0</v>
       </c>
-      <c r="I205" s="2">
+      <c r="I205" s="3">
         <v>44215.9395833333</v>
       </c>
-      <c r="J205" s="3">
+      <c r="J205" s="4">
         <v>1162</v>
       </c>
       <c r="K205" s="1">
@@ -10576,10 +10591,10 @@
       <c r="H206" s="1">
         <v>0</v>
       </c>
-      <c r="I206" s="2">
+      <c r="I206" s="3">
         <v>44103.5701388889</v>
       </c>
-      <c r="J206" s="3">
+      <c r="J206" s="4">
         <v>1066</v>
       </c>
       <c r="K206" s="1">
@@ -10614,13 +10629,13 @@
       <c r="H207" s="1">
         <v>0</v>
       </c>
-      <c r="I207" s="2">
+      <c r="I207" s="3">
         <v>42728.4111111111</v>
       </c>
       <c r="J207" s="1">
         <v>240</v>
       </c>
-      <c r="K207" s="3">
+      <c r="K207" s="4">
         <v>1937</v>
       </c>
       <c r="L207" s="1">
@@ -10652,13 +10667,13 @@
       <c r="H208" s="1">
         <v>0.01</v>
       </c>
-      <c r="I208" s="2">
+      <c r="I208" s="3">
         <v>43859.7034722222</v>
       </c>
-      <c r="J208" s="3">
+      <c r="J208" s="4">
         <v>2954</v>
       </c>
-      <c r="K208" s="3">
+      <c r="K208" s="4">
         <v>78570</v>
       </c>
       <c r="L208" s="1">
@@ -10690,13 +10705,13 @@
       <c r="H209" s="1">
         <v>0.01</v>
       </c>
-      <c r="I209" s="2">
+      <c r="I209" s="3">
         <v>43969.6270833333</v>
       </c>
       <c r="J209" s="1">
         <v>121</v>
       </c>
-      <c r="K209" s="3">
+      <c r="K209" s="4">
         <v>1463</v>
       </c>
       <c r="L209" s="1">
@@ -10728,7 +10743,7 @@
       <c r="H210" s="1">
         <v>0</v>
       </c>
-      <c r="I210" s="2">
+      <c r="I210" s="3">
         <v>43097.7923611111</v>
       </c>
       <c r="J210" s="1">
@@ -10766,13 +10781,13 @@
       <c r="H211" s="1">
         <v>0.02</v>
       </c>
-      <c r="I211" s="2">
+      <c r="I211" s="3">
         <v>43323.9395833333</v>
       </c>
       <c r="J211" s="1">
         <v>69</v>
       </c>
-      <c r="K211" s="3">
+      <c r="K211" s="4">
         <v>1031</v>
       </c>
       <c r="L211" s="1">
@@ -10804,7 +10819,7 @@
       <c r="H212" s="1">
         <v>0</v>
       </c>
-      <c r="I212" s="2">
+      <c r="I212" s="3">
         <v>43417.8604166667</v>
       </c>
       <c r="J212" s="1">
@@ -10842,7 +10857,7 @@
       <c r="H213" s="1">
         <v>0.01</v>
       </c>
-      <c r="I213" s="2">
+      <c r="I213" s="3">
         <v>44228.1173611111</v>
       </c>
       <c r="J213" s="1">
@@ -10880,7 +10895,7 @@
       <c r="H214" s="1">
         <v>0</v>
       </c>
-      <c r="I214" s="2">
+      <c r="I214" s="3">
         <v>43954.5465277778</v>
       </c>
       <c r="J214" s="1">
@@ -10918,13 +10933,13 @@
       <c r="H215" s="1">
         <v>0</v>
       </c>
-      <c r="I215" s="2">
+      <c r="I215" s="3">
         <v>43994.1986111111</v>
       </c>
       <c r="J215" s="1">
         <v>45</v>
       </c>
-      <c r="K215" s="3">
+      <c r="K215" s="4">
         <v>5307</v>
       </c>
       <c r="L215" s="1">
@@ -10956,10 +10971,10 @@
       <c r="H216" s="1">
         <v>0</v>
       </c>
-      <c r="I216" s="2">
+      <c r="I216" s="3">
         <v>43901.1333333333</v>
       </c>
-      <c r="J216" s="3">
+      <c r="J216" s="4">
         <v>1013</v>
       </c>
       <c r="K216" s="1">
@@ -10994,10 +11009,10 @@
       <c r="H217" s="1">
         <v>0</v>
       </c>
-      <c r="I217" s="2">
+      <c r="I217" s="3">
         <v>44039.9083333333</v>
       </c>
-      <c r="J217" s="3">
+      <c r="J217" s="4">
         <v>1069</v>
       </c>
       <c r="K217" s="1">
@@ -11032,7 +11047,7 @@
       <c r="H218" s="1">
         <v>0</v>
       </c>
-      <c r="I218" s="2">
+      <c r="I218" s="3">
         <v>43083.4229166667</v>
       </c>
       <c r="J218" s="1">
@@ -11070,7 +11085,7 @@
       <c r="H219" s="1">
         <v>0</v>
       </c>
-      <c r="I219" s="2">
+      <c r="I219" s="3">
         <v>43880.0527777778</v>
       </c>
       <c r="J219" s="1">
@@ -11108,13 +11123,13 @@
       <c r="H220" s="1">
         <v>0.01</v>
       </c>
-      <c r="I220" s="2">
+      <c r="I220" s="3">
         <v>44055.4409722222</v>
       </c>
       <c r="J220" s="1">
         <v>69</v>
       </c>
-      <c r="K220" s="3">
+      <c r="K220" s="4">
         <v>13448</v>
       </c>
       <c r="L220" s="1">
@@ -11146,13 +11161,13 @@
       <c r="H221" s="1">
         <v>0.03</v>
       </c>
-      <c r="I221" s="2">
+      <c r="I221" s="3">
         <v>42623.0319444444</v>
       </c>
       <c r="J221" s="1">
         <v>82</v>
       </c>
-      <c r="K221" s="3">
+      <c r="K221" s="4">
         <v>12266</v>
       </c>
       <c r="L221" s="1">
@@ -11184,7 +11199,7 @@
       <c r="H222" s="1">
         <v>0.01</v>
       </c>
-      <c r="I222" s="2">
+      <c r="I222" s="3">
         <v>42862.4034722222</v>
       </c>
       <c r="J222" s="1">
@@ -11222,13 +11237,13 @@
       <c r="H223" s="1">
         <v>0</v>
       </c>
-      <c r="I223" s="2">
+      <c r="I223" s="3">
         <v>43979.55625</v>
       </c>
       <c r="J223" s="1">
         <v>282</v>
       </c>
-      <c r="K223" s="3">
+      <c r="K223" s="4">
         <v>122823</v>
       </c>
       <c r="L223" s="1">
@@ -11260,7 +11275,7 @@
       <c r="H224" s="1">
         <v>0</v>
       </c>
-      <c r="I224" s="2">
+      <c r="I224" s="3">
         <v>43832.2486111111</v>
       </c>
       <c r="J224" s="1">
@@ -11298,7 +11313,7 @@
       <c r="H225" s="1">
         <v>0</v>
       </c>
-      <c r="I225" s="2">
+      <c r="I225" s="3">
         <v>44189.0395833333</v>
       </c>
       <c r="J225" s="1">
@@ -11336,13 +11351,13 @@
       <c r="H226" s="1">
         <v>0.01</v>
       </c>
-      <c r="I226" s="2">
+      <c r="I226" s="3">
         <v>43930.0819444444</v>
       </c>
       <c r="J226" s="1">
         <v>204</v>
       </c>
-      <c r="K226" s="3">
+      <c r="K226" s="4">
         <v>12137</v>
       </c>
       <c r="L226" s="1">
@@ -11374,7 +11389,7 @@
       <c r="H227" s="1">
         <v>0</v>
       </c>
-      <c r="I227" s="2">
+      <c r="I227" s="3">
         <v>44117.4993055556</v>
       </c>
       <c r="J227" s="1">
@@ -11412,13 +11427,13 @@
       <c r="H228" s="1">
         <v>0.01</v>
       </c>
-      <c r="I228" s="2">
+      <c r="I228" s="3">
         <v>43620.0638888889</v>
       </c>
-      <c r="J228" s="3">
+      <c r="J228" s="4">
         <v>1695</v>
       </c>
-      <c r="K228" s="3">
+      <c r="K228" s="4">
         <v>943520</v>
       </c>
       <c r="L228" s="1">
@@ -11450,13 +11465,13 @@
       <c r="H229" s="1">
         <v>0.26</v>
       </c>
-      <c r="I229" s="2">
+      <c r="I229" s="3">
         <v>43998.6569444444</v>
       </c>
       <c r="J229" s="1">
         <v>954</v>
       </c>
-      <c r="K229" s="3">
+      <c r="K229" s="4">
         <v>13535</v>
       </c>
       <c r="L229" s="1">
@@ -11488,7 +11503,7 @@
       <c r="H230" s="1">
         <v>0.01</v>
       </c>
-      <c r="I230" s="2">
+      <c r="I230" s="3">
         <v>43758.8645833333</v>
       </c>
       <c r="J230" s="1">
@@ -11526,13 +11541,13 @@
       <c r="H231" s="1">
         <v>0.01</v>
       </c>
-      <c r="I231" s="2">
+      <c r="I231" s="3">
         <v>43722.30625</v>
       </c>
       <c r="J231" s="1">
         <v>996</v>
       </c>
-      <c r="K231" s="3">
+      <c r="K231" s="4">
         <v>23117</v>
       </c>
       <c r="L231" s="1">
@@ -11564,7 +11579,7 @@
       <c r="H232" s="1">
         <v>0</v>
       </c>
-      <c r="I232" s="2">
+      <c r="I232" s="3">
         <v>43936.3666666667</v>
       </c>
       <c r="J232" s="1">
@@ -11602,7 +11617,7 @@
       <c r="H233" s="1">
         <v>0</v>
       </c>
-      <c r="I233" s="2">
+      <c r="I233" s="3">
         <v>44220.6180555556</v>
       </c>
       <c r="J233" s="1">
@@ -11640,7 +11655,7 @@
       <c r="H234" s="1">
         <v>0</v>
       </c>
-      <c r="I234" s="2">
+      <c r="I234" s="3">
         <v>44197.7305555556</v>
       </c>
       <c r="J234" s="1">
@@ -11678,10 +11693,10 @@
       <c r="H235" s="1">
         <v>0</v>
       </c>
-      <c r="I235" s="2">
+      <c r="I235" s="3">
         <v>43987.2673611111</v>
       </c>
-      <c r="J235" s="3">
+      <c r="J235" s="4">
         <v>1437</v>
       </c>
       <c r="K235" s="1">
@@ -11716,7 +11731,7 @@
       <c r="H236" s="1">
         <v>0</v>
       </c>
-      <c r="I236" s="2">
+      <c r="I236" s="3">
         <v>43379.7743055556</v>
       </c>
       <c r="J236" s="1">
@@ -11754,10 +11769,10 @@
       <c r="H237" s="1">
         <v>0</v>
       </c>
-      <c r="I237" s="2">
+      <c r="I237" s="3">
         <v>43929.7381944444</v>
       </c>
-      <c r="J237" s="3">
+      <c r="J237" s="4">
         <v>1035</v>
       </c>
       <c r="K237" s="1">
@@ -11792,10 +11807,10 @@
       <c r="H238" s="1">
         <v>0</v>
       </c>
-      <c r="I238" s="2">
+      <c r="I238" s="3">
         <v>44088.3236111111</v>
       </c>
-      <c r="J238" s="3">
+      <c r="J238" s="4">
         <v>1103</v>
       </c>
       <c r="K238" s="1">
@@ -11830,7 +11845,7 @@
       <c r="H239" s="1">
         <v>0</v>
       </c>
-      <c r="I239" s="2">
+      <c r="I239" s="3">
         <v>43401.5173611111</v>
       </c>
       <c r="J239" s="1">
@@ -11868,13 +11883,13 @@
       <c r="H240" s="1">
         <v>0.01</v>
       </c>
-      <c r="I240" s="2">
+      <c r="I240" s="3">
         <v>43592.2916666667</v>
       </c>
       <c r="J240" s="1">
         <v>227</v>
       </c>
-      <c r="K240" s="3">
+      <c r="K240" s="4">
         <v>1704</v>
       </c>
       <c r="L240" s="1">
@@ -11906,7 +11921,7 @@
       <c r="H241" s="1">
         <v>0</v>
       </c>
-      <c r="I241" s="2">
+      <c r="I241" s="3">
         <v>43572.8402777778</v>
       </c>
       <c r="J241" s="1">
@@ -11944,10 +11959,10 @@
       <c r="H242" s="1">
         <v>0</v>
       </c>
-      <c r="I242" s="2">
+      <c r="I242" s="3">
         <v>43034.5819444444</v>
       </c>
-      <c r="J242" s="3">
+      <c r="J242" s="4">
         <v>1297</v>
       </c>
       <c r="K242" s="1">
@@ -11982,7 +11997,7 @@
       <c r="H243" s="1">
         <v>0.01</v>
       </c>
-      <c r="I243" s="2">
+      <c r="I243" s="3">
         <v>42141.1104166667</v>
       </c>
       <c r="J243" s="1">
@@ -12020,13 +12035,13 @@
       <c r="H244" s="1">
         <v>0</v>
       </c>
-      <c r="I244" s="2">
+      <c r="I244" s="3">
         <v>43780.2180555556</v>
       </c>
       <c r="J244" s="1">
         <v>182</v>
       </c>
-      <c r="K244" s="3">
+      <c r="K244" s="4">
         <v>1043</v>
       </c>
       <c r="L244" s="1">
@@ -12058,7 +12073,7 @@
       <c r="H245" s="1">
         <v>0</v>
       </c>
-      <c r="I245" s="2">
+      <c r="I245" s="3">
         <v>43805.9055555556</v>
       </c>
       <c r="J245" s="1">
@@ -12096,7 +12111,7 @@
       <c r="H246" s="1">
         <v>0</v>
       </c>
-      <c r="I246" s="2">
+      <c r="I246" s="3">
         <v>42953.4215277778</v>
       </c>
       <c r="J246" s="1">
@@ -12134,7 +12149,7 @@
       <c r="H247" s="1">
         <v>0</v>
       </c>
-      <c r="I247" s="2">
+      <c r="I247" s="3">
         <v>43576.6027777778</v>
       </c>
       <c r="J247" s="1">
@@ -12172,13 +12187,13 @@
       <c r="H248" s="1">
         <v>0</v>
       </c>
-      <c r="I248" s="2">
+      <c r="I248" s="3">
         <v>44197.7444444444</v>
       </c>
       <c r="J248" s="1">
         <v>768</v>
       </c>
-      <c r="K248" s="3">
+      <c r="K248" s="4">
         <v>1248</v>
       </c>
       <c r="L248" s="1">
@@ -12210,13 +12225,13 @@
       <c r="H249" s="1">
         <v>0.02</v>
       </c>
-      <c r="I249" s="2">
+      <c r="I249" s="3">
         <v>44221.2395833333</v>
       </c>
       <c r="J249" s="1">
         <v>304</v>
       </c>
-      <c r="K249" s="3">
+      <c r="K249" s="4">
         <v>4843</v>
       </c>
       <c r="L249" s="1">
@@ -12248,10 +12263,10 @@
       <c r="H250" s="1">
         <v>0</v>
       </c>
-      <c r="I250" s="2">
+      <c r="I250" s="3">
         <v>43856.2409722222</v>
       </c>
-      <c r="J250" s="3">
+      <c r="J250" s="4">
         <v>1166</v>
       </c>
       <c r="K250" s="1">
@@ -12286,10 +12301,10 @@
       <c r="H251" s="1">
         <v>0</v>
       </c>
-      <c r="I251" s="2">
+      <c r="I251" s="3">
         <v>44215.3416666667</v>
       </c>
-      <c r="J251" s="3">
+      <c r="J251" s="4">
         <v>1043</v>
       </c>
       <c r="K251" s="1">
@@ -12324,7 +12339,7 @@
       <c r="H252" s="1">
         <v>0</v>
       </c>
-      <c r="I252" s="2">
+      <c r="I252" s="3">
         <v>43992.7993055556</v>
       </c>
       <c r="J252" s="1">
@@ -12362,13 +12377,13 @@
       <c r="H253" s="1">
         <v>0.01</v>
       </c>
-      <c r="I253" s="2">
+      <c r="I253" s="3">
         <v>43852.2631944444</v>
       </c>
-      <c r="J253" s="3">
+      <c r="J253" s="4">
         <v>3035</v>
       </c>
-      <c r="K253" s="3">
+      <c r="K253" s="4">
         <v>113603</v>
       </c>
       <c r="L253" s="1">
@@ -12400,13 +12415,13 @@
       <c r="H254" s="1">
         <v>0.01</v>
       </c>
-      <c r="I254" s="2">
+      <c r="I254" s="3">
         <v>44215.8013888889</v>
       </c>
       <c r="J254" s="1">
         <v>203</v>
       </c>
-      <c r="K254" s="3">
+      <c r="K254" s="4">
         <v>34376</v>
       </c>
       <c r="L254" s="1">
@@ -12438,10 +12453,10 @@
       <c r="H255" s="1">
         <v>0</v>
       </c>
-      <c r="I255" s="2">
+      <c r="I255" s="3">
         <v>44025.54375</v>
       </c>
-      <c r="J255" s="3">
+      <c r="J255" s="4">
         <v>1438</v>
       </c>
       <c r="K255" s="1">
@@ -12476,7 +12491,7 @@
       <c r="H256" s="1">
         <v>0</v>
       </c>
-      <c r="I256" s="2">
+      <c r="I256" s="3">
         <v>43985.0805555556</v>
       </c>
       <c r="J256" s="1">
@@ -12514,7 +12529,7 @@
       <c r="H257" s="1">
         <v>0.01</v>
       </c>
-      <c r="I257" s="2">
+      <c r="I257" s="3">
         <v>44206.1576388889</v>
       </c>
       <c r="J257" s="1">
@@ -12552,7 +12567,7 @@
       <c r="H258" s="1">
         <v>0</v>
       </c>
-      <c r="I258" s="2">
+      <c r="I258" s="3">
         <v>44022.3597222222</v>
       </c>
       <c r="J258" s="1">
@@ -12590,13 +12605,13 @@
       <c r="H259" s="1">
         <v>0.04</v>
       </c>
-      <c r="I259" s="2">
+      <c r="I259" s="3">
         <v>42519.8097222222</v>
       </c>
       <c r="J259" s="1">
         <v>119</v>
       </c>
-      <c r="K259" s="3">
+      <c r="K259" s="4">
         <v>14117</v>
       </c>
       <c r="L259" s="1">
@@ -12628,7 +12643,7 @@
       <c r="H260" s="1">
         <v>0</v>
       </c>
-      <c r="I260" s="2">
+      <c r="I260" s="3">
         <v>44113.51875</v>
       </c>
       <c r="J260" s="1">
@@ -12666,7 +12681,7 @@
       <c r="H261" s="1">
         <v>0</v>
       </c>
-      <c r="I261" s="2">
+      <c r="I261" s="3">
         <v>44156.3576388889</v>
       </c>
       <c r="J261" s="1">
@@ -12704,7 +12719,7 @@
       <c r="H262" s="1">
         <v>0</v>
       </c>
-      <c r="I262" s="2">
+      <c r="I262" s="3">
         <v>44040.1416666667</v>
       </c>
       <c r="J262" s="1">
@@ -12742,7 +12757,7 @@
       <c r="H263" s="1">
         <v>0</v>
       </c>
-      <c r="I263" s="2">
+      <c r="I263" s="3">
         <v>44010.2083333333</v>
       </c>
       <c r="J263" s="1">
@@ -12780,7 +12795,7 @@
       <c r="H264" s="1">
         <v>0.05</v>
       </c>
-      <c r="I264" s="2">
+      <c r="I264" s="3">
         <v>43572.9298611111</v>
       </c>
       <c r="J264" s="1">
@@ -12818,7 +12833,7 @@
       <c r="H265" s="1">
         <v>0</v>
       </c>
-      <c r="I265" s="2">
+      <c r="I265" s="3">
         <v>44036.1270833333</v>
       </c>
       <c r="J265" s="1">
@@ -12856,10 +12871,10 @@
       <c r="H266" s="1">
         <v>0</v>
       </c>
-      <c r="I266" s="2">
+      <c r="I266" s="3">
         <v>43851.6444444444</v>
       </c>
-      <c r="J266" s="3">
+      <c r="J266" s="4">
         <v>1493</v>
       </c>
       <c r="K266" s="1">
@@ -12894,10 +12909,10 @@
       <c r="H267" s="1">
         <v>0</v>
       </c>
-      <c r="I267" s="2">
+      <c r="I267" s="3">
         <v>44008.23125</v>
       </c>
-      <c r="J267" s="3">
+      <c r="J267" s="4">
         <v>1081</v>
       </c>
       <c r="K267" s="1">
@@ -12932,13 +12947,13 @@
       <c r="H268" s="1">
         <v>0.01</v>
       </c>
-      <c r="I268" s="2">
+      <c r="I268" s="3">
         <v>43959</v>
       </c>
       <c r="J268" s="1">
         <v>24</v>
       </c>
-      <c r="K268" s="3">
+      <c r="K268" s="4">
         <v>1012</v>
       </c>
       <c r="L268" s="1">
@@ -12970,7 +12985,7 @@
       <c r="H269" s="1">
         <v>0</v>
       </c>
-      <c r="I269" s="2">
+      <c r="I269" s="3">
         <v>44082.3166666667</v>
       </c>
       <c r="J269" s="1">
@@ -13008,7 +13023,7 @@
       <c r="H270" s="1">
         <v>0</v>
       </c>
-      <c r="I270" s="2">
+      <c r="I270" s="3">
         <v>44212.3222222222</v>
       </c>
       <c r="J270" s="1">
@@ -13046,7 +13061,7 @@
       <c r="H271" s="1">
         <v>0</v>
       </c>
-      <c r="I271" s="2">
+      <c r="I271" s="3">
         <v>44222.8347222222</v>
       </c>
       <c r="J271" s="1">
@@ -13084,13 +13099,13 @@
       <c r="H272" s="1">
         <v>0.01</v>
       </c>
-      <c r="I272" s="2">
+      <c r="I272" s="3">
         <v>44136.6395833333</v>
       </c>
-      <c r="J272" s="3">
+      <c r="J272" s="4">
         <v>2199</v>
       </c>
-      <c r="K272" s="3">
+      <c r="K272" s="4">
         <v>93197</v>
       </c>
       <c r="L272" s="1">
@@ -13122,7 +13137,7 @@
       <c r="H273" s="1">
         <v>0</v>
       </c>
-      <c r="I273" s="2">
+      <c r="I273" s="3">
         <v>43077.0548611111</v>
       </c>
       <c r="J273" s="1">
@@ -13160,7 +13175,7 @@
       <c r="H274" s="1">
         <v>0.04</v>
       </c>
-      <c r="I274" s="2">
+      <c r="I274" s="3">
         <v>43818.6479166667</v>
       </c>
       <c r="J274" s="1">
@@ -13198,7 +13213,7 @@
       <c r="H275" s="1">
         <v>0</v>
       </c>
-      <c r="I275" s="2">
+      <c r="I275" s="3">
         <v>43895.7256944444</v>
       </c>
       <c r="J275" s="1">
@@ -13236,13 +13251,13 @@
       <c r="H276" s="1">
         <v>0</v>
       </c>
-      <c r="I276" s="2">
+      <c r="I276" s="3">
         <v>44217.1354166667</v>
       </c>
       <c r="J276" s="1">
         <v>44</v>
       </c>
-      <c r="K276" s="3">
+      <c r="K276" s="4">
         <v>35806</v>
       </c>
       <c r="L276" s="1">
@@ -13274,7 +13289,7 @@
       <c r="H277" s="1">
         <v>0</v>
       </c>
-      <c r="I277" s="2">
+      <c r="I277" s="3">
         <v>44209.3340277778</v>
       </c>
       <c r="J277" s="1">
@@ -13312,7 +13327,7 @@
       <c r="H278" s="1">
         <v>0</v>
       </c>
-      <c r="I278" s="2">
+      <c r="I278" s="3">
         <v>43991.55</v>
       </c>
       <c r="J278" s="1">
@@ -13350,7 +13365,7 @@
       <c r="H279" s="1">
         <v>0.01</v>
       </c>
-      <c r="I279" s="2">
+      <c r="I279" s="3">
         <v>44087.1083333333</v>
       </c>
       <c r="J279" s="1">
@@ -13388,7 +13403,7 @@
       <c r="H280" s="1">
         <v>0.01</v>
       </c>
-      <c r="I280" s="2">
+      <c r="I280" s="3">
         <v>44229.4645833333</v>
       </c>
       <c r="J280" s="1">
@@ -13426,7 +13441,7 @@
       <c r="H281" s="1">
         <v>0</v>
       </c>
-      <c r="I281" s="2">
+      <c r="I281" s="3">
         <v>43756.6930555556</v>
       </c>
       <c r="J281" s="1">
@@ -13464,7 +13479,7 @@
       <c r="H282" s="1">
         <v>0</v>
       </c>
-      <c r="I282" s="2">
+      <c r="I282" s="3">
         <v>44230.5791666667</v>
       </c>
       <c r="J282" s="1">
@@ -13502,7 +13517,7 @@
       <c r="H283" s="1">
         <v>0</v>
       </c>
-      <c r="I283" s="2">
+      <c r="I283" s="3">
         <v>44092.3291666667</v>
       </c>
       <c r="J283" s="1">
@@ -13540,7 +13555,7 @@
       <c r="H284" s="1">
         <v>0</v>
       </c>
-      <c r="I284" s="2">
+      <c r="I284" s="3">
         <v>44041.2201388889</v>
       </c>
       <c r="J284" s="1">
@@ -13578,7 +13593,7 @@
       <c r="H285" s="1">
         <v>0</v>
       </c>
-      <c r="I285" s="2">
+      <c r="I285" s="3">
         <v>44081.8770833333</v>
       </c>
       <c r="J285" s="1">
@@ -13616,10 +13631,10 @@
       <c r="H286" s="1">
         <v>0</v>
       </c>
-      <c r="I286" s="2">
+      <c r="I286" s="3">
         <v>44126.3506944444</v>
       </c>
-      <c r="J286" s="3">
+      <c r="J286" s="4">
         <v>1209</v>
       </c>
       <c r="K286" s="1">
@@ -13654,7 +13669,7 @@
       <c r="H287" s="1">
         <v>0</v>
       </c>
-      <c r="I287" s="2">
+      <c r="I287" s="3">
         <v>43923.9006944444</v>
       </c>
       <c r="J287" s="1">
@@ -13692,10 +13707,10 @@
       <c r="H288" s="1">
         <v>0</v>
       </c>
-      <c r="I288" s="2">
+      <c r="I288" s="3">
         <v>43991.4645833333</v>
       </c>
-      <c r="J288" s="3">
+      <c r="J288" s="4">
         <v>1000</v>
       </c>
       <c r="K288" s="1">
@@ -13730,7 +13745,7 @@
       <c r="H289" s="1">
         <v>0</v>
       </c>
-      <c r="I289" s="2">
+      <c r="I289" s="3">
         <v>44216.725</v>
       </c>
       <c r="J289" s="1">
@@ -13768,7 +13783,7 @@
       <c r="H290" s="1">
         <v>0</v>
       </c>
-      <c r="I290" s="2">
+      <c r="I290" s="3">
         <v>44214.3826388889</v>
       </c>
       <c r="J290" s="1">
@@ -13806,7 +13821,7 @@
       <c r="H291" s="1">
         <v>0</v>
       </c>
-      <c r="I291" s="2">
+      <c r="I291" s="3">
         <v>43476.9513888889</v>
       </c>
       <c r="J291" s="1">
@@ -13844,7 +13859,7 @@
       <c r="H292" s="1">
         <v>0</v>
       </c>
-      <c r="I292" s="2">
+      <c r="I292" s="3">
         <v>44020.6736111111</v>
       </c>
       <c r="J292" s="1">
@@ -13882,7 +13897,7 @@
       <c r="H293" s="1">
         <v>0.06</v>
       </c>
-      <c r="I293" s="2">
+      <c r="I293" s="3">
         <v>42481.3868055556</v>
       </c>
       <c r="J293" s="1">
@@ -13920,7 +13935,7 @@
       <c r="H294" s="1">
         <v>0</v>
       </c>
-      <c r="I294" s="2">
+      <c r="I294" s="3">
         <v>44043.2486111111</v>
       </c>
       <c r="J294" s="1">
@@ -13958,7 +13973,7 @@
       <c r="H295" s="1">
         <v>0</v>
       </c>
-      <c r="I295" s="2">
+      <c r="I295" s="3">
         <v>43987.1118055556</v>
       </c>
       <c r="J295" s="1">
@@ -13996,7 +14011,7 @@
       <c r="H296" s="1">
         <v>0</v>
       </c>
-      <c r="I296" s="2">
+      <c r="I296" s="3">
         <v>44108.9625</v>
       </c>
       <c r="J296" s="1">
@@ -14034,7 +14049,7 @@
       <c r="H297" s="1">
         <v>0</v>
       </c>
-      <c r="I297" s="2">
+      <c r="I297" s="3">
         <v>44044.9791666667</v>
       </c>
       <c r="J297" s="1">
@@ -14072,7 +14087,7 @@
       <c r="H298" s="1">
         <v>0</v>
       </c>
-      <c r="I298" s="2">
+      <c r="I298" s="3">
         <v>44220.6479166667</v>
       </c>
       <c r="J298" s="1">
@@ -14110,7 +14125,7 @@
       <c r="H299" s="1">
         <v>0</v>
       </c>
-      <c r="I299" s="2">
+      <c r="I299" s="3">
         <v>43989.30625</v>
       </c>
       <c r="J299" s="1">
@@ -14148,13 +14163,13 @@
       <c r="H300" s="1">
         <v>0.01</v>
       </c>
-      <c r="I300" s="2">
+      <c r="I300" s="3">
         <v>43751.01875</v>
       </c>
       <c r="J300" s="1">
         <v>56</v>
       </c>
-      <c r="K300" s="3">
+      <c r="K300" s="4">
         <v>15479</v>
       </c>
       <c r="L300" s="1">
@@ -14186,7 +14201,7 @@
       <c r="H301" s="1">
         <v>0</v>
       </c>
-      <c r="I301" s="2">
+      <c r="I301" s="3">
         <v>43953.2506944444</v>
       </c>
       <c r="J301" s="1">
@@ -14224,13 +14239,13 @@
       <c r="H302" s="1">
         <v>0</v>
       </c>
-      <c r="I302" s="2">
+      <c r="I302" s="3">
         <v>44197.5597222222</v>
       </c>
       <c r="J302" s="1">
         <v>415</v>
       </c>
-      <c r="K302" s="3">
+      <c r="K302" s="4">
         <v>1028</v>
       </c>
       <c r="L302" s="1">
@@ -14262,13 +14277,13 @@
       <c r="H303" s="1">
         <v>0</v>
       </c>
-      <c r="I303" s="2">
+      <c r="I303" s="3">
         <v>44220.3083333333</v>
       </c>
       <c r="J303" s="1">
         <v>17</v>
       </c>
-      <c r="K303" s="3">
+      <c r="K303" s="4">
         <v>9014</v>
       </c>
       <c r="L303" s="1">
@@ -14300,7 +14315,7 @@
       <c r="H304" s="1">
         <v>0</v>
       </c>
-      <c r="I304" s="2">
+      <c r="I304" s="3">
         <v>44215.875</v>
       </c>
       <c r="J304" s="1">
@@ -14338,13 +14353,13 @@
       <c r="H305" s="1">
         <v>0.04</v>
       </c>
-      <c r="I305" s="2">
+      <c r="I305" s="3">
         <v>43874.2472222222</v>
       </c>
-      <c r="J305" s="3">
+      <c r="J305" s="4">
         <v>1514</v>
       </c>
-      <c r="K305" s="3">
+      <c r="K305" s="4">
         <v>142295</v>
       </c>
       <c r="L305" s="1">
@@ -14376,7 +14391,7 @@
       <c r="H306" s="1">
         <v>0</v>
       </c>
-      <c r="I306" s="2">
+      <c r="I306" s="3">
         <v>43457.7194444444</v>
       </c>
       <c r="J306" s="1">
@@ -14414,7 +14429,7 @@
       <c r="H307" s="1">
         <v>0</v>
       </c>
-      <c r="I307" s="2">
+      <c r="I307" s="3">
         <v>44211.26875</v>
       </c>
       <c r="J307" s="1">
@@ -14452,7 +14467,7 @@
       <c r="H308" s="1">
         <v>0</v>
       </c>
-      <c r="I308" s="2">
+      <c r="I308" s="3">
         <v>43991.6326388889</v>
       </c>
       <c r="J308" s="1">
@@ -14490,7 +14505,7 @@
       <c r="H309" s="1">
         <v>0.01</v>
       </c>
-      <c r="I309" s="2">
+      <c r="I309" s="3">
         <v>43424.6625</v>
       </c>
       <c r="J309" s="1">
@@ -14528,7 +14543,7 @@
       <c r="H310" s="1">
         <v>0</v>
       </c>
-      <c r="I310" s="2">
+      <c r="I310" s="3">
         <v>44066.4430555556</v>
       </c>
       <c r="J310" s="1">
@@ -14566,7 +14581,7 @@
       <c r="H311" s="1">
         <v>0</v>
       </c>
-      <c r="I311" s="2">
+      <c r="I311" s="3">
         <v>43806.6534722222</v>
       </c>
       <c r="J311" s="1">
@@ -14604,7 +14619,7 @@
       <c r="H312" s="1">
         <v>0</v>
       </c>
-      <c r="I312" s="2">
+      <c r="I312" s="3">
         <v>44043.825</v>
       </c>
       <c r="J312" s="1">
@@ -14642,7 +14657,7 @@
       <c r="H313" s="1">
         <v>0</v>
       </c>
-      <c r="I313" s="2">
+      <c r="I313" s="3">
         <v>43999.9138888889</v>
       </c>
       <c r="J313" s="1">
@@ -14680,7 +14695,7 @@
       <c r="H314" s="1">
         <v>0</v>
       </c>
-      <c r="I314" s="2">
+      <c r="I314" s="3">
         <v>44194.9375</v>
       </c>
       <c r="J314" s="1">
@@ -14718,7 +14733,7 @@
       <c r="H315" s="1">
         <v>0</v>
       </c>
-      <c r="I315" s="2">
+      <c r="I315" s="3">
         <v>44220.2090277778</v>
       </c>
       <c r="J315" s="1">
@@ -14756,7 +14771,7 @@
       <c r="H316" s="1">
         <v>0</v>
       </c>
-      <c r="I316" s="2">
+      <c r="I316" s="3">
         <v>44212.2013888889</v>
       </c>
       <c r="J316" s="1">
@@ -14794,7 +14809,7 @@
       <c r="H317" s="1">
         <v>0.01</v>
       </c>
-      <c r="I317" s="2">
+      <c r="I317" s="3">
         <v>43608.2138888889</v>
       </c>
       <c r="J317" s="1">
@@ -14832,13 +14847,13 @@
       <c r="H318" s="1">
         <v>0</v>
       </c>
-      <c r="I318" s="2">
+      <c r="I318" s="3">
         <v>44211.6645833333</v>
       </c>
       <c r="J318" s="1">
         <v>19</v>
       </c>
-      <c r="K318" s="3">
+      <c r="K318" s="4">
         <v>3416</v>
       </c>
       <c r="L318" s="1">
@@ -14870,13 +14885,13 @@
       <c r="H319" s="1">
         <v>0</v>
       </c>
-      <c r="I319" s="2">
+      <c r="I319" s="3">
         <v>43473.4805555556</v>
       </c>
       <c r="J319" s="1">
         <v>397</v>
       </c>
-      <c r="K319" s="3">
+      <c r="K319" s="4">
         <v>8590</v>
       </c>
       <c r="L319" s="1">
@@ -14908,7 +14923,7 @@
       <c r="H320" s="1">
         <v>0.01</v>
       </c>
-      <c r="I320" s="2">
+      <c r="I320" s="3">
         <v>44169.3180555556</v>
       </c>
       <c r="J320" s="1">
@@ -14946,7 +14961,7 @@
       <c r="H321" s="1">
         <v>0</v>
       </c>
-      <c r="I321" s="2">
+      <c r="I321" s="3">
         <v>43969.1875</v>
       </c>
       <c r="J321" s="1">
@@ -14984,7 +14999,7 @@
       <c r="H322" s="1">
         <v>0</v>
       </c>
-      <c r="I322" s="2">
+      <c r="I322" s="3">
         <v>44141.1583333333</v>
       </c>
       <c r="J322" s="1">
@@ -15022,13 +15037,13 @@
       <c r="H323" s="1">
         <v>0</v>
       </c>
-      <c r="I323" s="2">
+      <c r="I323" s="3">
         <v>42670.9027777778</v>
       </c>
       <c r="J323" s="1">
         <v>9</v>
       </c>
-      <c r="K323" s="3">
+      <c r="K323" s="4">
         <v>2104</v>
       </c>
       <c r="L323" s="1">
@@ -15060,13 +15075,13 @@
       <c r="H324" s="1">
         <v>0</v>
       </c>
-      <c r="I324" s="2">
+      <c r="I324" s="3">
         <v>44212.4215277778</v>
       </c>
       <c r="J324" s="1">
         <v>344</v>
       </c>
-      <c r="K324" s="3">
+      <c r="K324" s="4">
         <v>1517</v>
       </c>
       <c r="L324" s="1">
@@ -15098,7 +15113,7 @@
       <c r="H325" s="1">
         <v>0</v>
       </c>
-      <c r="I325" s="2">
+      <c r="I325" s="3">
         <v>43980.8416666667</v>
       </c>
       <c r="J325" s="1">
@@ -15136,7 +15151,7 @@
       <c r="H326" s="1">
         <v>0</v>
       </c>
-      <c r="I326" s="2">
+      <c r="I326" s="3">
         <v>44162.4375</v>
       </c>
       <c r="J326" s="1">
@@ -15174,13 +15189,13 @@
       <c r="H327" s="1">
         <v>0</v>
       </c>
-      <c r="I327" s="2">
+      <c r="I327" s="3">
         <v>43988.2618055556</v>
       </c>
       <c r="J327" s="1">
         <v>77</v>
       </c>
-      <c r="K327" s="3">
+      <c r="K327" s="4">
         <v>1710</v>
       </c>
       <c r="L327" s="1">
@@ -15212,7 +15227,7 @@
       <c r="H328" s="1">
         <v>0</v>
       </c>
-      <c r="I328" s="2">
+      <c r="I328" s="3">
         <v>44217.4041666667</v>
       </c>
       <c r="J328" s="1">
@@ -15250,13 +15265,13 @@
       <c r="H329" s="1">
         <v>0</v>
       </c>
-      <c r="I329" s="2">
+      <c r="I329" s="3">
         <v>44220.0020833333</v>
       </c>
       <c r="J329" s="1">
         <v>399</v>
       </c>
-      <c r="K329" s="3">
+      <c r="K329" s="4">
         <v>1731</v>
       </c>
       <c r="L329" s="1">
@@ -15288,7 +15303,7 @@
       <c r="H330" s="1">
         <v>0.01</v>
       </c>
-      <c r="I330" s="2">
+      <c r="I330" s="3">
         <v>44182.9270833333</v>
       </c>
       <c r="J330" s="1">
@@ -15326,7 +15341,7 @@
       <c r="H331" s="1">
         <v>0.01</v>
       </c>
-      <c r="I331" s="2">
+      <c r="I331" s="3">
         <v>43716.5666666667</v>
       </c>
       <c r="J331" s="1">
@@ -15364,13 +15379,13 @@
       <c r="H332" s="1">
         <v>0.01</v>
       </c>
-      <c r="I332" s="2">
+      <c r="I332" s="3">
         <v>44131.1944444444</v>
       </c>
       <c r="J332" s="1">
         <v>66</v>
       </c>
-      <c r="K332" s="3">
+      <c r="K332" s="4">
         <v>12209</v>
       </c>
       <c r="L332" s="1">
@@ -15402,7 +15417,7 @@
       <c r="H333" s="1">
         <v>0</v>
       </c>
-      <c r="I333" s="2">
+      <c r="I333" s="3">
         <v>43965.5513888889</v>
       </c>
       <c r="J333" s="1">
@@ -15440,7 +15455,7 @@
       <c r="H334" s="1">
         <v>0</v>
       </c>
-      <c r="I334" s="2">
+      <c r="I334" s="3">
         <v>43724.7270833333</v>
       </c>
       <c r="J334" s="1">
@@ -15478,13 +15493,13 @@
       <c r="H335" s="1">
         <v>0.01</v>
       </c>
-      <c r="I335" s="2">
+      <c r="I335" s="3">
         <v>43771.0569444444</v>
       </c>
       <c r="J335" s="1">
         <v>151</v>
       </c>
-      <c r="K335" s="3">
+      <c r="K335" s="4">
         <v>1550</v>
       </c>
       <c r="L335" s="1">
@@ -15516,13 +15531,13 @@
       <c r="H336" s="1">
         <v>0.01</v>
       </c>
-      <c r="I336" s="2">
+      <c r="I336" s="3">
         <v>44210.5298611111</v>
       </c>
       <c r="J336" s="1">
         <v>432</v>
       </c>
-      <c r="K336" s="3">
+      <c r="K336" s="4">
         <v>8533</v>
       </c>
       <c r="L336" s="1">
@@ -15554,7 +15569,7 @@
       <c r="H337" s="1">
         <v>0</v>
       </c>
-      <c r="I337" s="2">
+      <c r="I337" s="3">
         <v>44112.5375</v>
       </c>
       <c r="J337" s="1">
@@ -15592,13 +15607,13 @@
       <c r="H338" s="1">
         <v>0</v>
       </c>
-      <c r="I338" s="2">
+      <c r="I338" s="3">
         <v>43889.5347222222</v>
       </c>
       <c r="J338" s="1">
         <v>31</v>
       </c>
-      <c r="K338" s="3">
+      <c r="K338" s="4">
         <v>3067</v>
       </c>
       <c r="L338" s="1">
@@ -15630,7 +15645,7 @@
       <c r="H339" s="1">
         <v>0.01</v>
       </c>
-      <c r="I339" s="2">
+      <c r="I339" s="3">
         <v>43432.6611111111</v>
       </c>
       <c r="J339" s="1">
@@ -15668,7 +15683,7 @@
       <c r="H340" s="1">
         <v>0</v>
       </c>
-      <c r="I340" s="2">
+      <c r="I340" s="3">
         <v>44212.775</v>
       </c>
       <c r="J340" s="1">
@@ -15706,7 +15721,7 @@
       <c r="H341" s="1">
         <v>0</v>
       </c>
-      <c r="I341" s="2">
+      <c r="I341" s="3">
         <v>43994.5854166667</v>
       </c>
       <c r="J341" s="1">
@@ -15744,13 +15759,13 @@
       <c r="H342" s="1">
         <v>0</v>
       </c>
-      <c r="I342" s="2">
+      <c r="I342" s="3">
         <v>43664.9493055556</v>
       </c>
       <c r="J342" s="1">
         <v>28</v>
       </c>
-      <c r="K342" s="3">
+      <c r="K342" s="4">
         <v>27404</v>
       </c>
       <c r="L342" s="1">
@@ -15782,7 +15797,7 @@
       <c r="H343" s="1">
         <v>0</v>
       </c>
-      <c r="I343" s="2">
+      <c r="I343" s="3">
         <v>44159.8041666667</v>
       </c>
       <c r="J343" s="1">
@@ -15820,7 +15835,7 @@
       <c r="H344" s="1">
         <v>0</v>
       </c>
-      <c r="I344" s="2">
+      <c r="I344" s="3">
         <v>44028.7472222222</v>
       </c>
       <c r="J344" s="1">
@@ -15858,7 +15873,7 @@
       <c r="H345" s="1">
         <v>0</v>
       </c>
-      <c r="I345" s="2">
+      <c r="I345" s="3">
         <v>44146.35625</v>
       </c>
       <c r="J345" s="1">
@@ -15896,7 +15911,7 @@
       <c r="H346" s="1">
         <v>0.01</v>
       </c>
-      <c r="I346" s="2">
+      <c r="I346" s="3">
         <v>44023.8638888889</v>
       </c>
       <c r="J346" s="1">
@@ -15934,7 +15949,7 @@
       <c r="H347" s="1">
         <v>0</v>
       </c>
-      <c r="I347" s="2">
+      <c r="I347" s="3">
         <v>43933.6402777778</v>
       </c>
       <c r="J347" s="1">
@@ -15972,13 +15987,13 @@
       <c r="H348" s="1">
         <v>0</v>
       </c>
-      <c r="I348" s="2">
+      <c r="I348" s="3">
         <v>44171.2020833333</v>
       </c>
       <c r="J348" s="1">
         <v>25</v>
       </c>
-      <c r="K348" s="3">
+      <c r="K348" s="4">
         <v>187112</v>
       </c>
       <c r="L348" s="1">
@@ -16010,7 +16025,7 @@
       <c r="H349" s="1">
         <v>0.01</v>
       </c>
-      <c r="I349" s="2">
+      <c r="I349" s="3">
         <v>43980.3041666667</v>
       </c>
       <c r="J349" s="1">
@@ -16048,7 +16063,7 @@
       <c r="H350" s="1">
         <v>0</v>
       </c>
-      <c r="I350" s="2">
+      <c r="I350" s="3">
         <v>44212.1451388889</v>
       </c>
       <c r="J350" s="1">
@@ -16086,13 +16101,13 @@
       <c r="H351" s="1">
         <v>0</v>
       </c>
-      <c r="I351" s="2">
+      <c r="I351" s="3">
         <v>43997.6354166667</v>
       </c>
       <c r="J351" s="1">
         <v>123</v>
       </c>
-      <c r="K351" s="3">
+      <c r="K351" s="4">
         <v>11526</v>
       </c>
       <c r="L351" s="1">
@@ -16124,7 +16139,7 @@
       <c r="H352" s="1">
         <v>0</v>
       </c>
-      <c r="I352" s="2">
+      <c r="I352" s="3">
         <v>43997.7743055556</v>
       </c>
       <c r="J352" s="1">
@@ -16162,13 +16177,13 @@
       <c r="H353" s="1">
         <v>0</v>
       </c>
-      <c r="I353" s="2">
+      <c r="I353" s="3">
         <v>43869.3041666667</v>
       </c>
       <c r="J353" s="1">
         <v>41</v>
       </c>
-      <c r="K353" s="3">
+      <c r="K353" s="4">
         <v>26123</v>
       </c>
       <c r="L353" s="1">
@@ -16200,7 +16215,7 @@
       <c r="H354" s="1">
         <v>0.01</v>
       </c>
-      <c r="I354" s="2">
+      <c r="I354" s="3">
         <v>44183.7055555556</v>
       </c>
       <c r="J354" s="1">
@@ -16238,7 +16253,7 @@
       <c r="H355" s="1">
         <v>0</v>
       </c>
-      <c r="I355" s="2">
+      <c r="I355" s="3">
         <v>43534.9</v>
       </c>
       <c r="J355" s="1">
@@ -16276,7 +16291,7 @@
       <c r="H356" s="1">
         <v>0</v>
       </c>
-      <c r="I356" s="2">
+      <c r="I356" s="3">
         <v>43549.7416666667</v>
       </c>
       <c r="J356" s="1">
@@ -16314,7 +16329,7 @@
       <c r="H357" s="1">
         <v>0.02</v>
       </c>
-      <c r="I357" s="2">
+      <c r="I357" s="3">
         <v>44072.7958333333</v>
       </c>
       <c r="J357" s="1">
@@ -16352,7 +16367,7 @@
       <c r="H358" s="1">
         <v>0</v>
       </c>
-      <c r="I358" s="2">
+      <c r="I358" s="3">
         <v>44219.4395833333</v>
       </c>
       <c r="J358" s="1">
@@ -16390,13 +16405,13 @@
       <c r="H359" s="1">
         <v>0.01</v>
       </c>
-      <c r="I359" s="2">
+      <c r="I359" s="3">
         <v>43998.2284722222</v>
       </c>
       <c r="J359" s="1">
         <v>18</v>
       </c>
-      <c r="K359" s="3">
+      <c r="K359" s="4">
         <v>10064</v>
       </c>
       <c r="L359" s="1">
@@ -16428,7 +16443,7 @@
       <c r="H360" s="1">
         <v>0</v>
       </c>
-      <c r="I360" s="2">
+      <c r="I360" s="3">
         <v>44215.2590277778</v>
       </c>
       <c r="J360" s="1">
@@ -16466,7 +16481,7 @@
       <c r="H361" s="1">
         <v>0</v>
       </c>
-      <c r="I361" s="2">
+      <c r="I361" s="3">
         <v>43616.8666666667</v>
       </c>
       <c r="J361" s="1">
@@ -16504,7 +16519,7 @@
       <c r="H362" s="1">
         <v>0</v>
       </c>
-      <c r="I362" s="2">
+      <c r="I362" s="3">
         <v>43939.1090277778</v>
       </c>
       <c r="J362" s="1">
@@ -16542,13 +16557,13 @@
       <c r="H363" s="1">
         <v>0</v>
       </c>
-      <c r="I363" s="2">
+      <c r="I363" s="3">
         <v>43913.0180555556</v>
       </c>
       <c r="J363" s="1">
         <v>334</v>
       </c>
-      <c r="K363" s="3">
+      <c r="K363" s="4">
         <v>10819</v>
       </c>
       <c r="L363" s="1">
@@ -16580,7 +16595,7 @@
       <c r="H364" s="1">
         <v>0</v>
       </c>
-      <c r="I364" s="2">
+      <c r="I364" s="3">
         <v>44092.6298611111</v>
       </c>
       <c r="J364" s="1">
@@ -16618,7 +16633,7 @@
       <c r="H365" s="1">
         <v>0</v>
       </c>
-      <c r="I365" s="2">
+      <c r="I365" s="3">
         <v>43854.2055555556</v>
       </c>
       <c r="J365" s="1">
@@ -16656,13 +16671,13 @@
       <c r="H366" s="1">
         <v>0</v>
       </c>
-      <c r="I366" s="2">
+      <c r="I366" s="3">
         <v>43567.0791666667</v>
       </c>
       <c r="J366" s="1">
         <v>53</v>
       </c>
-      <c r="K366" s="3">
+      <c r="K366" s="4">
         <v>20995</v>
       </c>
       <c r="L366" s="1">
@@ -16694,7 +16709,7 @@
       <c r="H367" s="1">
         <v>0</v>
       </c>
-      <c r="I367" s="2">
+      <c r="I367" s="3">
         <v>44217</v>
       </c>
       <c r="J367" s="1">
@@ -16732,7 +16747,7 @@
       <c r="H368" s="1">
         <v>0</v>
       </c>
-      <c r="I368" s="2">
+      <c r="I368" s="3">
         <v>43457.7</v>
       </c>
       <c r="J368" s="1">
@@ -16770,7 +16785,7 @@
       <c r="H369" s="1">
         <v>0.01</v>
       </c>
-      <c r="I369" s="2">
+      <c r="I369" s="3">
         <v>43715.8708333333</v>
       </c>
       <c r="J369" s="1">
@@ -16808,13 +16823,13 @@
       <c r="H370" s="1">
         <v>0</v>
       </c>
-      <c r="I370" s="2">
+      <c r="I370" s="3">
         <v>44120.09375</v>
       </c>
       <c r="J370" s="1">
         <v>23</v>
       </c>
-      <c r="K370" s="3">
+      <c r="K370" s="4">
         <v>12984</v>
       </c>
       <c r="L370" s="1">
@@ -16846,13 +16861,13 @@
       <c r="H371" s="1">
         <v>0</v>
       </c>
-      <c r="I371" s="2">
+      <c r="I371" s="3">
         <v>44043.6673611111</v>
       </c>
       <c r="J371" s="1">
         <v>281</v>
       </c>
-      <c r="K371" s="3">
+      <c r="K371" s="4">
         <v>106513</v>
       </c>
       <c r="L371" s="1">
@@ -16884,7 +16899,7 @@
       <c r="H372" s="1">
         <v>0</v>
       </c>
-      <c r="I372" s="2">
+      <c r="I372" s="3">
         <v>44086.3166666667</v>
       </c>
       <c r="J372" s="1">
@@ -16922,7 +16937,7 @@
       <c r="H373" s="1">
         <v>0</v>
       </c>
-      <c r="I373" s="2">
+      <c r="I373" s="3">
         <v>44207.2138888889</v>
       </c>
       <c r="J373" s="1">
@@ -16960,7 +16975,7 @@
       <c r="H374" s="1">
         <v>0</v>
       </c>
-      <c r="I374" s="2">
+      <c r="I374" s="3">
         <v>44157.0090277778</v>
       </c>
       <c r="J374" s="1">
@@ -16998,13 +17013,13 @@
       <c r="H375" s="1">
         <v>0</v>
       </c>
-      <c r="I375" s="2">
+      <c r="I375" s="3">
         <v>44090.2631944444</v>
       </c>
       <c r="J375" s="1">
         <v>18</v>
       </c>
-      <c r="K375" s="3">
+      <c r="K375" s="4">
         <v>1325</v>
       </c>
       <c r="L375" s="1">
@@ -17036,7 +17051,7 @@
       <c r="H376" s="1">
         <v>0.03</v>
       </c>
-      <c r="I376" s="2">
+      <c r="I376" s="3">
         <v>43555.7229166667</v>
       </c>
       <c r="J376" s="1">
@@ -17074,7 +17089,7 @@
       <c r="H377" s="1">
         <v>0</v>
       </c>
-      <c r="I377" s="2">
+      <c r="I377" s="3">
         <v>43982.4881944444</v>
       </c>
       <c r="J377" s="1">
@@ -17112,7 +17127,7 @@
       <c r="H378" s="1">
         <v>0</v>
       </c>
-      <c r="I378" s="2">
+      <c r="I378" s="3">
         <v>43663.3986111111</v>
       </c>
       <c r="J378" s="1">
@@ -17150,7 +17165,7 @@
       <c r="H379" s="1">
         <v>0</v>
       </c>
-      <c r="I379" s="2">
+      <c r="I379" s="3">
         <v>43469.7625</v>
       </c>
       <c r="J379" s="1">
@@ -17188,7 +17203,7 @@
       <c r="H380" s="1">
         <v>0</v>
       </c>
-      <c r="I380" s="2">
+      <c r="I380" s="3">
         <v>43997.9548611111</v>
       </c>
       <c r="J380" s="1">
@@ -17226,7 +17241,7 @@
       <c r="H381" s="1">
         <v>0</v>
       </c>
-      <c r="I381" s="2">
+      <c r="I381" s="3">
         <v>43909.8833333333</v>
       </c>
       <c r="J381" s="1">
@@ -17264,13 +17279,13 @@
       <c r="H382" s="1">
         <v>0</v>
       </c>
-      <c r="I382" s="2">
+      <c r="I382" s="3">
         <v>43391.8666666667</v>
       </c>
       <c r="J382" s="1">
         <v>40</v>
       </c>
-      <c r="K382" s="3">
+      <c r="K382" s="4">
         <v>1180</v>
       </c>
       <c r="L382" s="1">
@@ -17302,7 +17317,7 @@
       <c r="H383" s="1">
         <v>0</v>
       </c>
-      <c r="I383" s="2">
+      <c r="I383" s="3">
         <v>43478.9548611111</v>
       </c>
       <c r="J383" s="1">
@@ -17340,7 +17355,7 @@
       <c r="H384" s="1">
         <v>0</v>
       </c>
-      <c r="I384" s="2">
+      <c r="I384" s="3">
         <v>44092.4319444444</v>
       </c>
       <c r="J384" s="1">
@@ -17378,13 +17393,13 @@
       <c r="H385" s="1">
         <v>0</v>
       </c>
-      <c r="I385" s="2">
+      <c r="I385" s="3">
         <v>43498.61875</v>
       </c>
       <c r="J385" s="1">
         <v>37</v>
       </c>
-      <c r="K385" s="3">
+      <c r="K385" s="4">
         <v>5375</v>
       </c>
       <c r="L385" s="1">
@@ -17416,13 +17431,13 @@
       <c r="H386" s="1">
         <v>0.01</v>
       </c>
-      <c r="I386" s="2">
+      <c r="I386" s="3">
         <v>44223.5826388889</v>
       </c>
-      <c r="J386" s="3">
+      <c r="J386" s="4">
         <v>1272</v>
       </c>
-      <c r="K386" s="3">
+      <c r="K386" s="4">
         <v>31544</v>
       </c>
       <c r="L386" s="1">
@@ -17454,13 +17469,13 @@
       <c r="H387" s="1">
         <v>0</v>
       </c>
-      <c r="I387" s="2">
+      <c r="I387" s="3">
         <v>44184.7791666667</v>
       </c>
       <c r="J387" s="1">
         <v>49</v>
       </c>
-      <c r="K387" s="3">
+      <c r="K387" s="4">
         <v>4965</v>
       </c>
       <c r="L387" s="1">
@@ -17492,7 +17507,7 @@
       <c r="H388" s="1">
         <v>0</v>
       </c>
-      <c r="I388" s="2">
+      <c r="I388" s="3">
         <v>43864.3041666667</v>
       </c>
       <c r="J388" s="1">
@@ -17530,7 +17545,7 @@
       <c r="H389" s="1">
         <v>0</v>
       </c>
-      <c r="I389" s="2">
+      <c r="I389" s="3">
         <v>43960.1215277778</v>
       </c>
       <c r="J389" s="1">
@@ -17568,7 +17583,7 @@
       <c r="H390" s="1">
         <v>0</v>
       </c>
-      <c r="I390" s="2">
+      <c r="I390" s="3">
         <v>44225.2944444444</v>
       </c>
       <c r="J390" s="1">
@@ -17606,7 +17621,7 @@
       <c r="H391" s="1">
         <v>0</v>
       </c>
-      <c r="I391" s="2">
+      <c r="I391" s="3">
         <v>44003.4944444444</v>
       </c>
       <c r="J391" s="1">
@@ -17644,13 +17659,13 @@
       <c r="H392" s="1">
         <v>0</v>
       </c>
-      <c r="I392" s="2">
+      <c r="I392" s="3">
         <v>44060.7548611111</v>
       </c>
       <c r="J392" s="1">
         <v>21</v>
       </c>
-      <c r="K392" s="3">
+      <c r="K392" s="4">
         <v>18892</v>
       </c>
       <c r="L392" s="1">
@@ -17682,7 +17697,7 @@
       <c r="H393" s="1">
         <v>0</v>
       </c>
-      <c r="I393" s="2">
+      <c r="I393" s="3">
         <v>44123.9173611111</v>
       </c>
       <c r="J393" s="1">
@@ -17720,7 +17735,7 @@
       <c r="H394" s="1">
         <v>0</v>
       </c>
-      <c r="I394" s="2">
+      <c r="I394" s="3">
         <v>42880.6618055556</v>
       </c>
       <c r="J394" s="1">
@@ -17758,7 +17773,7 @@
       <c r="H395" s="1">
         <v>0</v>
       </c>
-      <c r="I395" s="2">
+      <c r="I395" s="3">
         <v>44045.2680555556</v>
       </c>
       <c r="J395" s="1">
@@ -17796,13 +17811,13 @@
       <c r="H396" s="1">
         <v>0.03</v>
       </c>
-      <c r="I396" s="2">
+      <c r="I396" s="3">
         <v>43991.5131944444</v>
       </c>
       <c r="J396" s="1">
         <v>543</v>
       </c>
-      <c r="K396" s="3">
+      <c r="K396" s="4">
         <v>78334</v>
       </c>
       <c r="L396" s="1">
@@ -17834,7 +17849,7 @@
       <c r="H397" s="1">
         <v>0</v>
       </c>
-      <c r="I397" s="2">
+      <c r="I397" s="3">
         <v>44006.2555555556</v>
       </c>
       <c r="J397" s="1">
@@ -17872,7 +17887,7 @@
       <c r="H398" s="1">
         <v>0</v>
       </c>
-      <c r="I398" s="2">
+      <c r="I398" s="3">
         <v>44023.6020833333</v>
       </c>
       <c r="J398" s="1">
@@ -17910,7 +17925,7 @@
       <c r="H399" s="1">
         <v>0</v>
       </c>
-      <c r="I399" s="2">
+      <c r="I399" s="3">
         <v>44002.8104166667</v>
       </c>
       <c r="J399" s="1">
@@ -17948,7 +17963,7 @@
       <c r="H400" s="1">
         <v>0</v>
       </c>
-      <c r="I400" s="2">
+      <c r="I400" s="3">
         <v>44012.625</v>
       </c>
       <c r="J400" s="1">
@@ -17986,7 +18001,7 @@
       <c r="H401" s="1">
         <v>0</v>
       </c>
-      <c r="I401" s="2">
+      <c r="I401" s="3">
         <v>44008.6986111111</v>
       </c>
       <c r="J401" s="1">
@@ -18024,7 +18039,7 @@
       <c r="H402" s="1">
         <v>0</v>
       </c>
-      <c r="I402" s="2">
+      <c r="I402" s="3">
         <v>44015.2430555556</v>
       </c>
       <c r="J402" s="1">
@@ -18062,7 +18077,7 @@
       <c r="H403" s="1">
         <v>0</v>
       </c>
-      <c r="I403" s="2">
+      <c r="I403" s="3">
         <v>44049.2993055556</v>
       </c>
       <c r="J403" s="1">
@@ -18100,7 +18115,7 @@
       <c r="H404" s="1">
         <v>0</v>
       </c>
-      <c r="I404" s="2">
+      <c r="I404" s="3">
         <v>44050.3013888889</v>
       </c>
       <c r="J404" s="1">
@@ -18138,7 +18153,7 @@
       <c r="H405" s="1">
         <v>0</v>
       </c>
-      <c r="I405" s="2">
+      <c r="I405" s="3">
         <v>44030.6194444444</v>
       </c>
       <c r="J405" s="1">
@@ -18176,7 +18191,7 @@
       <c r="H406" s="1">
         <v>0</v>
       </c>
-      <c r="I406" s="2">
+      <c r="I406" s="3">
         <v>44034.1145833333</v>
       </c>
       <c r="J406" s="1">
@@ -18214,13 +18229,13 @@
       <c r="H407" s="1">
         <v>0</v>
       </c>
-      <c r="I407" s="2">
+      <c r="I407" s="3">
         <v>43661.63125</v>
       </c>
       <c r="J407" s="1">
         <v>55</v>
       </c>
-      <c r="K407" s="3">
+      <c r="K407" s="4">
         <v>36637</v>
       </c>
       <c r="L407" s="1">
@@ -18252,7 +18267,7 @@
       <c r="H408" s="1">
         <v>0</v>
       </c>
-      <c r="I408" s="2">
+      <c r="I408" s="3">
         <v>44070.8090277778</v>
       </c>
       <c r="J408" s="1">
@@ -18290,7 +18305,7 @@
       <c r="H409" s="1">
         <v>0</v>
       </c>
-      <c r="I409" s="2">
+      <c r="I409" s="3">
         <v>43598.4076388889</v>
       </c>
       <c r="J409" s="1">
@@ -18328,7 +18343,7 @@
       <c r="H410" s="1">
         <v>0</v>
       </c>
-      <c r="I410" s="2">
+      <c r="I410" s="3">
         <v>43232.3194444444</v>
       </c>
       <c r="J410" s="1">
@@ -18366,7 +18381,7 @@
       <c r="H411" s="1">
         <v>0</v>
       </c>
-      <c r="I411" s="2">
+      <c r="I411" s="3">
         <v>43990.1333333333</v>
       </c>
       <c r="J411" s="1">
@@ -18404,7 +18419,7 @@
       <c r="H412" s="1">
         <v>0</v>
       </c>
-      <c r="I412" s="2">
+      <c r="I412" s="3">
         <v>43985.5673611111</v>
       </c>
       <c r="J412" s="1">
@@ -18442,7 +18457,7 @@
       <c r="H413" s="1">
         <v>0</v>
       </c>
-      <c r="I413" s="2">
+      <c r="I413" s="3">
         <v>43897.3680555556</v>
       </c>
       <c r="J413" s="1">
@@ -18480,7 +18495,7 @@
       <c r="H414" s="1">
         <v>0</v>
       </c>
-      <c r="I414" s="2">
+      <c r="I414" s="3">
         <v>43950.7465277778</v>
       </c>
       <c r="J414" s="1">
@@ -18518,7 +18533,7 @@
       <c r="H415" s="1">
         <v>0</v>
       </c>
-      <c r="I415" s="2">
+      <c r="I415" s="3">
         <v>44095.0305555556</v>
       </c>
       <c r="J415" s="1">
@@ -18556,7 +18571,7 @@
       <c r="H416" s="1">
         <v>0</v>
       </c>
-      <c r="I416" s="2">
+      <c r="I416" s="3">
         <v>44221.5645833333</v>
       </c>
       <c r="J416" s="1">
@@ -18594,13 +18609,13 @@
       <c r="H417" s="1">
         <v>0</v>
       </c>
-      <c r="I417" s="2">
+      <c r="I417" s="3">
         <v>44129.6583333333</v>
       </c>
       <c r="J417" s="1">
         <v>2</v>
       </c>
-      <c r="K417" s="3">
+      <c r="K417" s="4">
         <v>5905</v>
       </c>
       <c r="L417" s="1">
@@ -18632,13 +18647,13 @@
       <c r="H418" s="1">
         <v>0.01</v>
       </c>
-      <c r="I418" s="2">
+      <c r="I418" s="3">
         <v>44213.7576388889</v>
       </c>
       <c r="J418" s="1">
         <v>114</v>
       </c>
-      <c r="K418" s="3">
+      <c r="K418" s="4">
         <v>30947</v>
       </c>
       <c r="L418" s="1">
@@ -18670,7 +18685,7 @@
       <c r="H419" s="1">
         <v>0.06</v>
       </c>
-      <c r="I419" s="2">
+      <c r="I419" s="3">
         <v>43224.9104166667</v>
       </c>
       <c r="J419" s="1">
@@ -18708,7 +18723,7 @@
       <c r="H420" s="1">
         <v>0</v>
       </c>
-      <c r="I420" s="2">
+      <c r="I420" s="3">
         <v>44143.1027777778</v>
       </c>
       <c r="J420" s="1">
@@ -18746,7 +18761,7 @@
       <c r="H421" s="1">
         <v>0</v>
       </c>
-      <c r="I421" s="2">
+      <c r="I421" s="3">
         <v>44225.1270833333</v>
       </c>
       <c r="J421" s="1">
@@ -18784,7 +18799,7 @@
       <c r="H422" s="1">
         <v>0</v>
       </c>
-      <c r="I422" s="2">
+      <c r="I422" s="3">
         <v>44197.9263888889</v>
       </c>
       <c r="J422" s="1">
@@ -18822,7 +18837,7 @@
       <c r="H423" s="1">
         <v>0</v>
       </c>
-      <c r="I423" s="2">
+      <c r="I423" s="3">
         <v>44214.7305555556</v>
       </c>
       <c r="J423" s="1">
@@ -18860,7 +18875,7 @@
       <c r="H424" s="1">
         <v>0</v>
       </c>
-      <c r="I424" s="2">
+      <c r="I424" s="3">
         <v>44005.40625</v>
       </c>
       <c r="J424" s="1">
@@ -18898,7 +18913,7 @@
       <c r="H425" s="1">
         <v>0</v>
       </c>
-      <c r="I425" s="2">
+      <c r="I425" s="3">
         <v>43632.8368055556</v>
       </c>
       <c r="J425" s="1">
@@ -18936,7 +18951,7 @@
       <c r="H426" s="1">
         <v>0</v>
       </c>
-      <c r="I426" s="2">
+      <c r="I426" s="3">
         <v>43894.7368055556</v>
       </c>
       <c r="J426" s="1">
@@ -18974,7 +18989,7 @@
       <c r="H427" s="1">
         <v>0</v>
       </c>
-      <c r="I427" s="2">
+      <c r="I427" s="3">
         <v>44229.6729166667</v>
       </c>
       <c r="J427" s="1">
@@ -19012,7 +19027,7 @@
       <c r="H428" s="1">
         <v>0.01</v>
       </c>
-      <c r="I428" s="2">
+      <c r="I428" s="3">
         <v>44212.1354166667</v>
       </c>
       <c r="J428" s="1">
@@ -19050,7 +19065,7 @@
       <c r="H429" s="1">
         <v>0.01</v>
       </c>
-      <c r="I429" s="2">
+      <c r="I429" s="3">
         <v>44192.1708333333</v>
       </c>
       <c r="J429" s="1">
@@ -19088,13 +19103,13 @@
       <c r="H430" s="1">
         <v>0</v>
       </c>
-      <c r="I430" s="2">
+      <c r="I430" s="3">
         <v>44012.9506944444</v>
       </c>
       <c r="J430" s="1">
         <v>36</v>
       </c>
-      <c r="K430" s="3">
+      <c r="K430" s="4">
         <v>5681</v>
       </c>
       <c r="L430" s="1">
@@ -19126,7 +19141,7 @@
       <c r="H431" s="1">
         <v>0</v>
       </c>
-      <c r="I431" s="2">
+      <c r="I431" s="3">
         <v>42867.8409722222</v>
       </c>
       <c r="J431" s="1">
@@ -19164,7 +19179,7 @@
       <c r="H432" s="1">
         <v>0.01</v>
       </c>
-      <c r="I432" s="2">
+      <c r="I432" s="3">
         <v>44167.8798611111</v>
       </c>
       <c r="J432" s="1">
@@ -19202,7 +19217,7 @@
       <c r="H433" s="1">
         <v>0</v>
       </c>
-      <c r="I433" s="2">
+      <c r="I433" s="3">
         <v>42451.2902777778</v>
       </c>
       <c r="J433" s="1">
@@ -19240,7 +19255,7 @@
       <c r="H434" s="1">
         <v>0</v>
       </c>
-      <c r="I434" s="2">
+      <c r="I434" s="3">
         <v>44039.8111111111</v>
       </c>
       <c r="J434" s="1">
@@ -19278,13 +19293,13 @@
       <c r="H435" s="1">
         <v>0</v>
       </c>
-      <c r="I435" s="2">
+      <c r="I435" s="3">
         <v>44220.6145833333</v>
       </c>
       <c r="J435" s="1">
         <v>11</v>
       </c>
-      <c r="K435" s="3">
+      <c r="K435" s="4">
         <v>3657</v>
       </c>
       <c r="L435" s="1">
@@ -19316,7 +19331,7 @@
       <c r="H436" s="1">
         <v>0</v>
       </c>
-      <c r="I436" s="2">
+      <c r="I436" s="3">
         <v>44223.9597222222</v>
       </c>
       <c r="J436" s="1">
@@ -19354,7 +19369,7 @@
       <c r="H437" s="1">
         <v>0</v>
       </c>
-      <c r="I437" s="2">
+      <c r="I437" s="3">
         <v>44192.8659722222</v>
       </c>
       <c r="J437" s="1">
@@ -19392,13 +19407,13 @@
       <c r="H438" s="1">
         <v>0.01</v>
       </c>
-      <c r="I438" s="2">
+      <c r="I438" s="3">
         <v>44097.7763888889</v>
       </c>
       <c r="J438" s="1">
         <v>89</v>
       </c>
-      <c r="K438" s="3">
+      <c r="K438" s="4">
         <v>7801</v>
       </c>
       <c r="L438" s="1">
@@ -19430,13 +19445,13 @@
       <c r="H439" s="1">
         <v>0</v>
       </c>
-      <c r="I439" s="2">
+      <c r="I439" s="3">
         <v>44191.8222222222</v>
       </c>
       <c r="J439" s="1">
         <v>54</v>
       </c>
-      <c r="K439" s="3">
+      <c r="K439" s="4">
         <v>16046</v>
       </c>
       <c r="L439" s="1">
@@ -19468,7 +19483,7 @@
       <c r="H440" s="1">
         <v>0</v>
       </c>
-      <c r="I440" s="2">
+      <c r="I440" s="3">
         <v>43799.8166666667</v>
       </c>
       <c r="J440" s="1">
@@ -19506,7 +19521,7 @@
       <c r="H441" s="1">
         <v>0</v>
       </c>
-      <c r="I441" s="2">
+      <c r="I441" s="3">
         <v>43975.3354166667</v>
       </c>
       <c r="J441" s="1">
@@ -19544,7 +19559,7 @@
       <c r="H442" s="1">
         <v>0</v>
       </c>
-      <c r="I442" s="2">
+      <c r="I442" s="3">
         <v>44211.4840277778</v>
       </c>
       <c r="J442" s="1">
@@ -19582,7 +19597,7 @@
       <c r="H443" s="1">
         <v>0</v>
       </c>
-      <c r="I443" s="2">
+      <c r="I443" s="3">
         <v>44220.54375</v>
       </c>
       <c r="J443" s="1">
@@ -19620,7 +19635,7 @@
       <c r="H444" s="1">
         <v>0</v>
       </c>
-      <c r="I444" s="2">
+      <c r="I444" s="3">
         <v>43803.5479166667</v>
       </c>
       <c r="J444" s="1">
@@ -19658,13 +19673,13 @@
       <c r="H445" s="1">
         <v>0</v>
       </c>
-      <c r="I445" s="2">
+      <c r="I445" s="3">
         <v>44044.8243055556</v>
       </c>
       <c r="J445" s="1">
         <v>157</v>
       </c>
-      <c r="K445" s="3">
+      <c r="K445" s="4">
         <v>51289</v>
       </c>
       <c r="L445" s="1">
@@ -19696,7 +19711,7 @@
       <c r="H446" s="1">
         <v>0.01</v>
       </c>
-      <c r="I446" s="2">
+      <c r="I446" s="3">
         <v>43360.3048611111</v>
       </c>
       <c r="J446" s="1">
@@ -19734,7 +19749,7 @@
       <c r="H447" s="1">
         <v>0</v>
       </c>
-      <c r="I447" s="2">
+      <c r="I447" s="3">
         <v>43730.2381944444</v>
       </c>
       <c r="J447" s="1">
@@ -19772,13 +19787,13 @@
       <c r="H448" s="1">
         <v>0.01</v>
       </c>
-      <c r="I448" s="2">
+      <c r="I448" s="3">
         <v>44033.9979166667</v>
       </c>
       <c r="J448" s="1">
         <v>170</v>
       </c>
-      <c r="K448" s="3">
+      <c r="K448" s="4">
         <v>16171</v>
       </c>
       <c r="L448" s="1">
@@ -19810,7 +19825,7 @@
       <c r="H449" s="1">
         <v>0.01</v>
       </c>
-      <c r="I449" s="2">
+      <c r="I449" s="3">
         <v>43964.1284722222</v>
       </c>
       <c r="J449" s="1">
@@ -19848,13 +19863,13 @@
       <c r="H450" s="1">
         <v>0</v>
       </c>
-      <c r="I450" s="2">
+      <c r="I450" s="3">
         <v>44134.1451388889</v>
       </c>
       <c r="J450" s="1">
         <v>178</v>
       </c>
-      <c r="K450" s="3">
+      <c r="K450" s="4">
         <v>1183</v>
       </c>
       <c r="L450" s="1">
@@ -19886,7 +19901,7 @@
       <c r="H451" s="1">
         <v>0</v>
       </c>
-      <c r="I451" s="2">
+      <c r="I451" s="3">
         <v>44040.3583333333</v>
       </c>
       <c r="J451" s="1">
@@ -19924,7 +19939,7 @@
       <c r="H452" s="1">
         <v>0</v>
       </c>
-      <c r="I452" s="2">
+      <c r="I452" s="3">
         <v>43980.9680555556</v>
       </c>
       <c r="J452" s="1">
@@ -19962,7 +19977,7 @@
       <c r="H453" s="1">
         <v>0.01</v>
       </c>
-      <c r="I453" s="2">
+      <c r="I453" s="3">
         <v>43530.5743055556</v>
       </c>
       <c r="J453" s="1">
@@ -20000,13 +20015,13 @@
       <c r="H454" s="1">
         <v>0</v>
       </c>
-      <c r="I454" s="2">
+      <c r="I454" s="3">
         <v>44213.6347222222</v>
       </c>
       <c r="J454" s="1">
         <v>50</v>
       </c>
-      <c r="K454" s="3">
+      <c r="K454" s="4">
         <v>1208</v>
       </c>
       <c r="L454" s="1">
@@ -20038,13 +20053,13 @@
       <c r="H455" s="1">
         <v>0.01</v>
       </c>
-      <c r="I455" s="2">
+      <c r="I455" s="3">
         <v>43990.9791666667</v>
       </c>
       <c r="J455" s="1">
         <v>100</v>
       </c>
-      <c r="K455" s="3">
+      <c r="K455" s="4">
         <v>21330</v>
       </c>
       <c r="L455" s="1">
@@ -20076,13 +20091,13 @@
       <c r="H456" s="1">
         <v>0</v>
       </c>
-      <c r="I456" s="2">
+      <c r="I456" s="3">
         <v>43994.4284722222</v>
       </c>
       <c r="J456" s="1">
         <v>42</v>
       </c>
-      <c r="K456" s="3">
+      <c r="K456" s="4">
         <v>21142</v>
       </c>
       <c r="L456" s="1">
@@ -20114,7 +20129,7 @@
       <c r="H457" s="1">
         <v>0</v>
       </c>
-      <c r="I457" s="2">
+      <c r="I457" s="3">
         <v>43366.4256944444</v>
       </c>
       <c r="J457" s="1">
@@ -20152,7 +20167,7 @@
       <c r="H458" s="1">
         <v>0</v>
       </c>
-      <c r="I458" s="2">
+      <c r="I458" s="3">
         <v>44210.96875</v>
       </c>
       <c r="J458" s="1">
@@ -20190,7 +20205,7 @@
       <c r="H459" s="1">
         <v>0</v>
       </c>
-      <c r="I459" s="2">
+      <c r="I459" s="3">
         <v>44091.9979166667</v>
       </c>
       <c r="J459" s="1">
@@ -20228,7 +20243,7 @@
       <c r="H460" s="1">
         <v>0</v>
       </c>
-      <c r="I460" s="2">
+      <c r="I460" s="3">
         <v>43992.8763888889</v>
       </c>
       <c r="J460" s="1">
@@ -20266,7 +20281,7 @@
       <c r="H461" s="1">
         <v>0</v>
       </c>
-      <c r="I461" s="2">
+      <c r="I461" s="3">
         <v>44014.2034722222</v>
       </c>
       <c r="J461" s="1">
@@ -20304,13 +20319,13 @@
       <c r="H462" s="1">
         <v>0</v>
       </c>
-      <c r="I462" s="2">
+      <c r="I462" s="3">
         <v>43977.9506944444</v>
       </c>
       <c r="J462" s="1">
         <v>102</v>
       </c>
-      <c r="K462" s="3">
+      <c r="K462" s="4">
         <v>79154</v>
       </c>
       <c r="L462" s="1">
@@ -20342,13 +20357,13 @@
       <c r="H463" s="1">
         <v>0</v>
       </c>
-      <c r="I463" s="2">
+      <c r="I463" s="3">
         <v>44143.06875</v>
       </c>
       <c r="J463" s="1">
         <v>36</v>
       </c>
-      <c r="K463" s="3">
+      <c r="K463" s="4">
         <v>1555</v>
       </c>
       <c r="L463" s="1">
@@ -20380,13 +20395,13 @@
       <c r="H464" s="1">
         <v>0</v>
       </c>
-      <c r="I464" s="2">
+      <c r="I464" s="3">
         <v>43824.8423611111</v>
       </c>
       <c r="J464" s="1">
         <v>28</v>
       </c>
-      <c r="K464" s="3">
+      <c r="K464" s="4">
         <v>19514</v>
       </c>
       <c r="L464" s="1">
@@ -20418,7 +20433,7 @@
       <c r="H465" s="1">
         <v>0.01</v>
       </c>
-      <c r="I465" s="2">
+      <c r="I465" s="3">
         <v>44116.7256944444</v>
       </c>
       <c r="J465" s="1">
@@ -20456,7 +20471,7 @@
       <c r="H466" s="1">
         <v>0</v>
       </c>
-      <c r="I466" s="2">
+      <c r="I466" s="3">
         <v>43937.5006944444</v>
       </c>
       <c r="J466" s="1">
@@ -20494,7 +20509,7 @@
       <c r="H467" s="1">
         <v>0</v>
       </c>
-      <c r="I467" s="2">
+      <c r="I467" s="3">
         <v>43852.46875</v>
       </c>
       <c r="J467" s="1">
@@ -20532,7 +20547,7 @@
       <c r="H468" s="1">
         <v>0</v>
       </c>
-      <c r="I468" s="2">
+      <c r="I468" s="3">
         <v>44209.9243055556</v>
       </c>
       <c r="J468" s="1">
@@ -20570,13 +20585,13 @@
       <c r="H469" s="1">
         <v>0.08</v>
       </c>
-      <c r="I469" s="2">
+      <c r="I469" s="3">
         <v>43528.6597222222</v>
       </c>
       <c r="J469" s="1">
         <v>1</v>
       </c>
-      <c r="K469" s="3">
+      <c r="K469" s="4">
         <v>2105</v>
       </c>
       <c r="L469" s="1">
@@ -20608,7 +20623,7 @@
       <c r="H470" s="1">
         <v>0</v>
       </c>
-      <c r="I470" s="2">
+      <c r="I470" s="3">
         <v>43923.7263888889</v>
       </c>
       <c r="J470" s="1">
@@ -20646,7 +20661,7 @@
       <c r="H471" s="1">
         <v>0</v>
       </c>
-      <c r="I471" s="2">
+      <c r="I471" s="3">
         <v>43997.9125</v>
       </c>
       <c r="J471" s="1">
@@ -20684,7 +20699,7 @@
       <c r="H472" s="1">
         <v>0.01</v>
       </c>
-      <c r="I472" s="2">
+      <c r="I472" s="3">
         <v>44216.5166666667</v>
       </c>
       <c r="J472" s="1">
@@ -20722,7 +20737,7 @@
       <c r="H473" s="1">
         <v>0</v>
       </c>
-      <c r="I473" s="2">
+      <c r="I473" s="3">
         <v>43999.8138888889</v>
       </c>
       <c r="J473" s="1">
@@ -20760,13 +20775,13 @@
       <c r="H474" s="1">
         <v>0</v>
       </c>
-      <c r="I474" s="2">
+      <c r="I474" s="3">
         <v>44126.9458333333</v>
       </c>
       <c r="J474" s="1">
         <v>8</v>
       </c>
-      <c r="K474" s="3">
+      <c r="K474" s="4">
         <v>2587</v>
       </c>
       <c r="L474" s="1">
@@ -20798,7 +20813,7 @@
       <c r="H475" s="1">
         <v>0</v>
       </c>
-      <c r="I475" s="2">
+      <c r="I475" s="3">
         <v>42064.0222222222</v>
       </c>
       <c r="J475" s="1">
@@ -20836,13 +20851,13 @@
       <c r="H476" s="1">
         <v>0</v>
       </c>
-      <c r="I476" s="2">
+      <c r="I476" s="3">
         <v>44217.19375</v>
       </c>
       <c r="J476" s="1">
         <v>5</v>
       </c>
-      <c r="K476" s="3">
+      <c r="K476" s="4">
         <v>12515</v>
       </c>
       <c r="L476" s="1">
@@ -20874,13 +20889,13 @@
       <c r="H477" s="1">
         <v>0</v>
       </c>
-      <c r="I477" s="2">
+      <c r="I477" s="3">
         <v>44079.3402777778</v>
       </c>
       <c r="J477" s="1">
         <v>5</v>
       </c>
-      <c r="K477" s="3">
+      <c r="K477" s="4">
         <v>2262</v>
       </c>
       <c r="L477" s="1">
@@ -20912,7 +20927,7 @@
       <c r="H478" s="1">
         <v>0.1</v>
       </c>
-      <c r="I478" s="2">
+      <c r="I478" s="3">
         <v>43211.0631944444</v>
       </c>
       <c r="J478" s="1">
@@ -20950,7 +20965,7 @@
       <c r="H479" s="1">
         <v>0</v>
       </c>
-      <c r="I479" s="2">
+      <c r="I479" s="3">
         <v>44140.8694444444</v>
       </c>
       <c r="J479" s="1">
@@ -20988,13 +21003,13 @@
       <c r="H480" s="1">
         <v>0</v>
       </c>
-      <c r="I480" s="2">
+      <c r="I480" s="3">
         <v>44120.2291666667</v>
       </c>
       <c r="J480" s="1">
         <v>4</v>
       </c>
-      <c r="K480" s="3">
+      <c r="K480" s="4">
         <v>6136</v>
       </c>
       <c r="L480" s="1">
@@ -21026,7 +21041,7 @@
       <c r="H481" s="1">
         <v>0</v>
       </c>
-      <c r="I481" s="2">
+      <c r="I481" s="3">
         <v>44227.8291666667</v>
       </c>
       <c r="J481" s="1">
@@ -21064,7 +21079,7 @@
       <c r="H482" s="1">
         <v>0.01</v>
       </c>
-      <c r="I482" s="2">
+      <c r="I482" s="3">
         <v>44215.4756944444</v>
       </c>
       <c r="J482" s="1">
@@ -21102,7 +21117,7 @@
       <c r="H483" s="1">
         <v>0.06</v>
       </c>
-      <c r="I483" s="2">
+      <c r="I483" s="3">
         <v>43978.0291666667</v>
       </c>
       <c r="J483" s="1">
@@ -21140,7 +21155,7 @@
       <c r="H484" s="1">
         <v>0</v>
       </c>
-      <c r="I484" s="2">
+      <c r="I484" s="3">
         <v>43979.7263888889</v>
       </c>
       <c r="J484" s="1">
@@ -21178,7 +21193,7 @@
       <c r="H485" s="1">
         <v>0</v>
       </c>
-      <c r="I485" s="2">
+      <c r="I485" s="3">
         <v>43913.3055555556</v>
       </c>
       <c r="J485" s="1">
@@ -21216,13 +21231,13 @@
       <c r="H486" s="1">
         <v>0</v>
       </c>
-      <c r="I486" s="2">
+      <c r="I486" s="3">
         <v>44211.3458333333</v>
       </c>
       <c r="J486" s="1">
         <v>14</v>
       </c>
-      <c r="K486" s="3">
+      <c r="K486" s="4">
         <v>3070</v>
       </c>
       <c r="L486" s="1">
@@ -21254,13 +21269,13 @@
       <c r="H487" s="1">
         <v>0</v>
       </c>
-      <c r="I487" s="2">
+      <c r="I487" s="3">
         <v>43787.7020833333</v>
       </c>
       <c r="J487" s="1">
         <v>375</v>
       </c>
-      <c r="K487" s="3">
+      <c r="K487" s="4">
         <v>11622</v>
       </c>
       <c r="L487" s="1">
@@ -21292,7 +21307,7 @@
       <c r="H488" s="1">
         <v>0</v>
       </c>
-      <c r="I488" s="2">
+      <c r="I488" s="3">
         <v>43451.5666666667</v>
       </c>
       <c r="J488" s="1">
@@ -21330,13 +21345,13 @@
       <c r="H489" s="1">
         <v>0.01</v>
       </c>
-      <c r="I489" s="2">
+      <c r="I489" s="3">
         <v>42273.5263888889</v>
       </c>
       <c r="J489" s="1">
         <v>8</v>
       </c>
-      <c r="K489" s="3">
+      <c r="K489" s="4">
         <v>8976</v>
       </c>
       <c r="L489" s="1">
@@ -21368,7 +21383,7 @@
       <c r="H490" s="1">
         <v>0</v>
       </c>
-      <c r="I490" s="2">
+      <c r="I490" s="3">
         <v>44100.5729166667</v>
       </c>
       <c r="J490" s="1">
@@ -21406,7 +21421,7 @@
       <c r="H491" s="1">
         <v>0</v>
       </c>
-      <c r="I491" s="2">
+      <c r="I491" s="3">
         <v>43990.7805555556</v>
       </c>
       <c r="J491" s="1">
@@ -21444,13 +21459,13 @@
       <c r="H492" s="1">
         <v>0.02</v>
       </c>
-      <c r="I492" s="2">
+      <c r="I492" s="3">
         <v>43864.2833333333</v>
       </c>
       <c r="J492" s="1">
         <v>3</v>
       </c>
-      <c r="K492" s="3">
+      <c r="K492" s="4">
         <v>58106</v>
       </c>
       <c r="L492" s="1">
@@ -21482,13 +21497,13 @@
       <c r="H493" s="1">
         <v>0</v>
       </c>
-      <c r="I493" s="2">
+      <c r="I493" s="3">
         <v>43985.2027777778</v>
       </c>
       <c r="J493" s="1">
         <v>50</v>
       </c>
-      <c r="K493" s="3">
+      <c r="K493" s="4">
         <v>17184</v>
       </c>
       <c r="L493" s="1">
@@ -21520,7 +21535,7 @@
       <c r="H494" s="1">
         <v>0.02</v>
       </c>
-      <c r="I494" s="2">
+      <c r="I494" s="3">
         <v>44073.1444444444</v>
       </c>
       <c r="J494" s="1">
@@ -21558,7 +21573,7 @@
       <c r="H495" s="1">
         <v>0</v>
       </c>
-      <c r="I495" s="2">
+      <c r="I495" s="3">
         <v>44192.0520833333</v>
       </c>
       <c r="J495" s="1">
@@ -21596,7 +21611,7 @@
       <c r="H496" s="1">
         <v>0</v>
       </c>
-      <c r="I496" s="2">
+      <c r="I496" s="3">
         <v>43816.9875</v>
       </c>
       <c r="J496" s="1">
@@ -21634,7 +21649,7 @@
       <c r="H497" s="1">
         <v>0</v>
       </c>
-      <c r="I497" s="2">
+      <c r="I497" s="3">
         <v>44068.6451388889</v>
       </c>
       <c r="J497" s="1">
@@ -21672,7 +21687,7 @@
       <c r="H498" s="1">
         <v>0</v>
       </c>
-      <c r="I498" s="2">
+      <c r="I498" s="3">
         <v>43851.6659722222</v>
       </c>
       <c r="J498" s="1">
@@ -21710,7 +21725,7 @@
       <c r="H499" s="1">
         <v>0</v>
       </c>
-      <c r="I499" s="2">
+      <c r="I499" s="3">
         <v>44054.2493055556</v>
       </c>
       <c r="J499" s="1">
@@ -21748,7 +21763,7 @@
       <c r="H500" s="1">
         <v>0</v>
       </c>
-      <c r="I500" s="2">
+      <c r="I500" s="3">
         <v>44216.3958333333</v>
       </c>
       <c r="J500" s="1">
@@ -21786,13 +21801,13 @@
       <c r="H501" s="1">
         <v>0</v>
       </c>
-      <c r="I501" s="2">
+      <c r="I501" s="3">
         <v>43954.6840277778</v>
       </c>
       <c r="J501" s="1">
         <v>8</v>
       </c>
-      <c r="K501" s="3">
+      <c r="K501" s="4">
         <v>4224</v>
       </c>
       <c r="L501" s="1">
@@ -21824,13 +21839,13 @@
       <c r="H502" s="1">
         <v>0.01</v>
       </c>
-      <c r="I502" s="2">
+      <c r="I502" s="3">
         <v>44093.4534722222</v>
       </c>
       <c r="J502" s="1">
         <v>107</v>
       </c>
-      <c r="K502" s="3">
+      <c r="K502" s="4">
         <v>4307</v>
       </c>
       <c r="L502" s="1">
@@ -21862,7 +21877,7 @@
       <c r="H503" s="1">
         <v>0.06</v>
       </c>
-      <c r="I503" s="2">
+      <c r="I503" s="3">
         <v>43948.7965277778</v>
       </c>
       <c r="J503" s="1">
@@ -21900,7 +21915,7 @@
       <c r="H504" s="1">
         <v>0</v>
       </c>
-      <c r="I504" s="2">
+      <c r="I504" s="3">
         <v>43800.56875</v>
       </c>
       <c r="J504" s="1">
@@ -21938,7 +21953,7 @@
       <c r="H505" s="1">
         <v>0.01</v>
       </c>
-      <c r="I505" s="2">
+      <c r="I505" s="3">
         <v>44103.8673611111</v>
       </c>
       <c r="J505" s="1">
@@ -21976,13 +21991,13 @@
       <c r="H506" s="1">
         <v>0.01</v>
       </c>
-      <c r="I506" s="2">
+      <c r="I506" s="3">
         <v>43988.9013888889</v>
       </c>
       <c r="J506" s="1">
         <v>16</v>
       </c>
-      <c r="K506" s="3">
+      <c r="K506" s="4">
         <v>5345</v>
       </c>
       <c r="L506" s="1">
@@ -22014,7 +22029,7 @@
       <c r="H507" s="1">
         <v>0</v>
       </c>
-      <c r="I507" s="2">
+      <c r="I507" s="3">
         <v>43970.8416666667</v>
       </c>
       <c r="J507" s="1">
@@ -22052,7 +22067,7 @@
       <c r="H508" s="1">
         <v>0</v>
       </c>
-      <c r="I508" s="2">
+      <c r="I508" s="3">
         <v>44006.6958333333</v>
       </c>
       <c r="J508" s="1">
@@ -22090,13 +22105,13 @@
       <c r="H509" s="1">
         <v>0</v>
       </c>
-      <c r="I509" s="2">
+      <c r="I509" s="3">
         <v>44227.7805555556</v>
       </c>
       <c r="J509" s="1">
         <v>1</v>
       </c>
-      <c r="K509" s="3">
+      <c r="K509" s="4">
         <v>5069</v>
       </c>
       <c r="L509" s="1">
@@ -22128,13 +22143,13 @@
       <c r="H510" s="1">
         <v>0</v>
       </c>
-      <c r="I510" s="2">
+      <c r="I510" s="3">
         <v>44185.3534722222</v>
       </c>
       <c r="J510" s="1">
         <v>22</v>
       </c>
-      <c r="K510" s="3">
+      <c r="K510" s="4">
         <v>59711</v>
       </c>
       <c r="L510" s="1">
@@ -22166,7 +22181,7 @@
       <c r="H511" s="1">
         <v>0</v>
       </c>
-      <c r="I511" s="2">
+      <c r="I511" s="3">
         <v>43839.05625</v>
       </c>
       <c r="J511" s="1">
@@ -22204,7 +22219,7 @@
       <c r="H512" s="1">
         <v>0</v>
       </c>
-      <c r="I512" s="2">
+      <c r="I512" s="3">
         <v>44117.7111111111</v>
       </c>
       <c r="J512" s="1">
@@ -22242,7 +22257,7 @@
       <c r="H513" s="1">
         <v>0</v>
       </c>
-      <c r="I513" s="2">
+      <c r="I513" s="3">
         <v>44220.8166666667</v>
       </c>
       <c r="J513" s="1">
@@ -22280,13 +22295,13 @@
       <c r="H514" s="1">
         <v>0</v>
       </c>
-      <c r="I514" s="2">
+      <c r="I514" s="3">
         <v>44093.2805555556</v>
       </c>
       <c r="J514" s="1">
         <v>19</v>
       </c>
-      <c r="K514" s="3">
+      <c r="K514" s="4">
         <v>1897</v>
       </c>
       <c r="L514" s="1">
@@ -22318,13 +22333,13 @@
       <c r="H515" s="1">
         <v>0</v>
       </c>
-      <c r="I515" s="2">
+      <c r="I515" s="3">
         <v>44211.8375</v>
       </c>
       <c r="J515" s="1">
         <v>4</v>
       </c>
-      <c r="K515" s="3">
+      <c r="K515" s="4">
         <v>33206</v>
       </c>
       <c r="L515" s="1">
@@ -22356,13 +22371,13 @@
       <c r="H516" s="1">
         <v>0</v>
       </c>
-      <c r="I516" s="2">
+      <c r="I516" s="3">
         <v>43665.0923611111</v>
       </c>
       <c r="J516" s="1">
         <v>7</v>
       </c>
-      <c r="K516" s="3">
+      <c r="K516" s="4">
         <v>23534</v>
       </c>
       <c r="L516" s="1">
@@ -22394,7 +22409,7 @@
       <c r="H517" s="1">
         <v>0.02</v>
       </c>
-      <c r="I517" s="2">
+      <c r="I517" s="3">
         <v>43307.8513888889</v>
       </c>
       <c r="J517" s="1">
@@ -22432,13 +22447,13 @@
       <c r="H518" s="1">
         <v>0</v>
       </c>
-      <c r="I518" s="2">
+      <c r="I518" s="3">
         <v>44032.26875</v>
       </c>
       <c r="J518" s="1">
         <v>4</v>
       </c>
-      <c r="K518" s="3">
+      <c r="K518" s="4">
         <v>5133</v>
       </c>
       <c r="L518" s="1">
@@ -22470,7 +22485,7 @@
       <c r="H519" s="1">
         <v>0</v>
       </c>
-      <c r="I519" s="2">
+      <c r="I519" s="3">
         <v>43814.3916666667</v>
       </c>
       <c r="J519" s="1">
@@ -22508,13 +22523,13 @@
       <c r="H520" s="1">
         <v>0</v>
       </c>
-      <c r="I520" s="2">
+      <c r="I520" s="3">
         <v>43986.8868055556</v>
       </c>
       <c r="J520" s="1">
         <v>14</v>
       </c>
-      <c r="K520" s="3">
+      <c r="K520" s="4">
         <v>18712</v>
       </c>
       <c r="L520" s="1">
@@ -22546,13 +22561,13 @@
       <c r="H521" s="1">
         <v>0</v>
       </c>
-      <c r="I521" s="2">
+      <c r="I521" s="3">
         <v>44001.4833333333</v>
       </c>
       <c r="J521" s="1">
         <v>2</v>
       </c>
-      <c r="K521" s="3">
+      <c r="K521" s="4">
         <v>11431</v>
       </c>
       <c r="L521" s="1">
@@ -22584,7 +22599,7 @@
       <c r="H522" s="1">
         <v>0.04</v>
       </c>
-      <c r="I522" s="2">
+      <c r="I522" s="3">
         <v>43486.2076388889</v>
       </c>
       <c r="J522" s="1">
@@ -22622,7 +22637,7 @@
       <c r="H523" s="1">
         <v>0</v>
       </c>
-      <c r="I523" s="2">
+      <c r="I523" s="3">
         <v>44225.2118055556</v>
       </c>
       <c r="J523" s="1">
@@ -22660,13 +22675,13 @@
       <c r="H524" s="1">
         <v>0.01</v>
       </c>
-      <c r="I524" s="2">
+      <c r="I524" s="3">
         <v>44214.7375</v>
       </c>
       <c r="J524" s="1">
         <v>2</v>
       </c>
-      <c r="K524" s="3">
+      <c r="K524" s="4">
         <v>1616</v>
       </c>
       <c r="L524" s="1">
@@ -22698,7 +22713,7 @@
       <c r="H525" s="1">
         <v>0.01</v>
       </c>
-      <c r="I525" s="2">
+      <c r="I525" s="3">
         <v>43518.6493055556</v>
       </c>
       <c r="J525" s="1">
@@ -22736,13 +22751,13 @@
       <c r="H526" s="1">
         <v>0</v>
       </c>
-      <c r="I526" s="2">
+      <c r="I526" s="3">
         <v>44222.1229166667</v>
       </c>
       <c r="J526" s="1">
         <v>1</v>
       </c>
-      <c r="K526" s="3">
+      <c r="K526" s="4">
         <v>5262</v>
       </c>
       <c r="L526" s="1">
@@ -22774,13 +22789,13 @@
       <c r="H527" s="1">
         <v>0</v>
       </c>
-      <c r="I527" s="2">
+      <c r="I527" s="3">
         <v>44220.6694444444</v>
       </c>
       <c r="J527" s="1">
         <v>1</v>
       </c>
-      <c r="K527" s="3">
+      <c r="K527" s="4">
         <v>5411</v>
       </c>
       <c r="L527" s="1">
@@ -22812,13 +22827,13 @@
       <c r="H528" s="1">
         <v>0</v>
       </c>
-      <c r="I528" s="2">
+      <c r="I528" s="3">
         <v>44213.58125</v>
       </c>
       <c r="J528" s="1">
         <v>1</v>
       </c>
-      <c r="K528" s="3">
+      <c r="K528" s="4">
         <v>3173</v>
       </c>
       <c r="L528" s="1">
@@ -22850,7 +22865,7 @@
       <c r="H529" s="1">
         <v>0</v>
       </c>
-      <c r="I529" s="2">
+      <c r="I529" s="3">
         <v>44188.1638888889</v>
       </c>
       <c r="J529" s="1">
@@ -22888,7 +22903,7 @@
       <c r="H530" s="1">
         <v>0</v>
       </c>
-      <c r="I530" s="2">
+      <c r="I530" s="3">
         <v>43844.1652777778</v>
       </c>
       <c r="J530" s="1">
@@ -22926,7 +22941,7 @@
       <c r="H531" s="1">
         <v>0</v>
       </c>
-      <c r="I531" s="2">
+      <c r="I531" s="3">
         <v>44215.4756944444</v>
       </c>
       <c r="J531" s="1">
@@ -22964,7 +22979,7 @@
       <c r="H532" s="1">
         <v>0</v>
       </c>
-      <c r="I532" s="2">
+      <c r="I532" s="3">
         <v>44033.1013888889</v>
       </c>
       <c r="J532" s="1">
@@ -23002,7 +23017,7 @@
       <c r="H533" s="1">
         <v>0</v>
       </c>
-      <c r="I533" s="2">
+      <c r="I533" s="3">
         <v>44126.9298611111</v>
       </c>
       <c r="J533" s="1">
@@ -23040,7 +23055,7 @@
       <c r="H534" s="1">
         <v>0</v>
       </c>
-      <c r="I534" s="2">
+      <c r="I534" s="3">
         <v>44074.9444444444</v>
       </c>
       <c r="J534" s="1">
@@ -23078,13 +23093,13 @@
       <c r="H535" s="1">
         <v>0</v>
       </c>
-      <c r="I535" s="2">
+      <c r="I535" s="3">
         <v>43959.1583333333</v>
       </c>
       <c r="J535" s="1">
         <v>1</v>
       </c>
-      <c r="K535" s="3">
+      <c r="K535" s="4">
         <v>17535</v>
       </c>
       <c r="L535" s="1">
@@ -23116,13 +23131,13 @@
       <c r="H536" s="1">
         <v>0</v>
       </c>
-      <c r="I536" s="2">
+      <c r="I536" s="3">
         <v>44224.3319444444</v>
       </c>
       <c r="J536" s="1">
         <v>4</v>
       </c>
-      <c r="K536" s="3">
+      <c r="K536" s="4">
         <v>63980</v>
       </c>
       <c r="L536" s="1">
@@ -23154,7 +23169,7 @@
       <c r="H537" s="1">
         <v>0.01</v>
       </c>
-      <c r="I537" s="2">
+      <c r="I537" s="3">
         <v>43536.9284722222</v>
       </c>
       <c r="J537" s="1">
@@ -23192,13 +23207,13 @@
       <c r="H538" s="1">
         <v>0</v>
       </c>
-      <c r="I538" s="2">
+      <c r="I538" s="3">
         <v>44072.8729166667</v>
       </c>
       <c r="J538" s="1">
         <v>3</v>
       </c>
-      <c r="K538" s="3">
+      <c r="K538" s="4">
         <v>2442</v>
       </c>
       <c r="L538" s="1">
@@ -23230,7 +23245,7 @@
       <c r="H539" s="1">
         <v>0</v>
       </c>
-      <c r="I539" s="2">
+      <c r="I539" s="3">
         <v>44219.8277777778</v>
       </c>
       <c r="J539" s="1">
@@ -23268,7 +23283,7 @@
       <c r="H540" s="1">
         <v>0.02</v>
       </c>
-      <c r="I540" s="2">
+      <c r="I540" s="3">
         <v>43049.6159722222</v>
       </c>
       <c r="J540" s="1">
@@ -23306,7 +23321,7 @@
       <c r="H541" s="1">
         <v>0</v>
       </c>
-      <c r="I541" s="2">
+      <c r="I541" s="3">
         <v>43565.85625</v>
       </c>
       <c r="J541" s="1">
@@ -23344,7 +23359,7 @@
       <c r="H542" s="1">
         <v>0</v>
       </c>
-      <c r="I542" s="2">
+      <c r="I542" s="3">
         <v>44208.5625</v>
       </c>
       <c r="J542" s="1">
@@ -23382,13 +23397,13 @@
       <c r="H543" s="1">
         <v>0</v>
       </c>
-      <c r="I543" s="2">
+      <c r="I543" s="3">
         <v>44056.6305555556</v>
       </c>
       <c r="J543" s="1">
         <v>5</v>
       </c>
-      <c r="K543" s="3">
+      <c r="K543" s="4">
         <v>3349</v>
       </c>
       <c r="L543" s="1">
@@ -23420,7 +23435,7 @@
       <c r="H544" s="1">
         <v>0</v>
       </c>
-      <c r="I544" s="2">
+      <c r="I544" s="3">
         <v>44225.7694444444</v>
       </c>
       <c r="J544" s="1">
@@ -23458,7 +23473,7 @@
       <c r="H545" s="1">
         <v>0.01</v>
       </c>
-      <c r="I545" s="2">
+      <c r="I545" s="3">
         <v>44131.1166666667</v>
       </c>
       <c r="J545" s="1">
@@ -23496,7 +23511,7 @@
       <c r="H546" s="1">
         <v>0</v>
       </c>
-      <c r="I546" s="2">
+      <c r="I546" s="3">
         <v>44220.5583333333</v>
       </c>
       <c r="J546" s="1">
@@ -23534,7 +23549,7 @@
       <c r="H547" s="1">
         <v>0.01</v>
       </c>
-      <c r="I547" s="2">
+      <c r="I547" s="3">
         <v>42189.7256944444</v>
       </c>
       <c r="J547" s="1">
@@ -23572,7 +23587,7 @@
       <c r="H548" s="1">
         <v>0</v>
       </c>
-      <c r="I548" s="2">
+      <c r="I548" s="3">
         <v>44185.9784722222</v>
       </c>
       <c r="J548" s="1">
@@ -23610,13 +23625,13 @@
       <c r="H549" s="1">
         <v>0.01</v>
       </c>
-      <c r="I549" s="2">
+      <c r="I549" s="3">
         <v>43940.4958333333</v>
       </c>
       <c r="J549" s="1">
         <v>1</v>
       </c>
-      <c r="K549" s="3">
+      <c r="K549" s="4">
         <v>4885</v>
       </c>
       <c r="L549" s="1">
@@ -23648,7 +23663,7 @@
       <c r="H550" s="1">
         <v>0</v>
       </c>
-      <c r="I550" s="2">
+      <c r="I550" s="3">
         <v>43577.2125</v>
       </c>
       <c r="J550" s="1">
@@ -23686,7 +23701,7 @@
       <c r="H551" s="1">
         <v>0.14</v>
       </c>
-      <c r="I551" s="2">
+      <c r="I551" s="3">
         <v>43836.8548611111</v>
       </c>
       <c r="J551" s="1">
@@ -23724,7 +23739,7 @@
       <c r="H552" s="1">
         <v>0</v>
       </c>
-      <c r="I552" s="2">
+      <c r="I552" s="3">
         <v>44201.6534722222</v>
       </c>
       <c r="J552" s="1">
@@ -23762,7 +23777,7 @@
       <c r="H553" s="1">
         <v>0</v>
       </c>
-      <c r="I553" s="2">
+      <c r="I553" s="3">
         <v>43801.0604166667</v>
       </c>
       <c r="J553" s="1">
@@ -23800,7 +23815,7 @@
       <c r="H554" s="1">
         <v>0</v>
       </c>
-      <c r="I554" s="2">
+      <c r="I554" s="3">
         <v>44216.6104166667</v>
       </c>
       <c r="J554" s="1">
@@ -23838,7 +23853,7 @@
       <c r="H555" s="1">
         <v>0</v>
       </c>
-      <c r="I555" s="2">
+      <c r="I555" s="3">
         <v>44217.1618055556</v>
       </c>
       <c r="J555" s="1">
@@ -23876,7 +23891,7 @@
       <c r="H556" s="1">
         <v>0.01</v>
       </c>
-      <c r="I556" s="2">
+      <c r="I556" s="3">
         <v>44212.8138888889</v>
       </c>
       <c r="J556" s="1">
@@ -23914,7 +23929,7 @@
       <c r="H557" s="1">
         <v>0.03</v>
       </c>
-      <c r="I557" s="2">
+      <c r="I557" s="3">
         <v>43547.8243055556</v>
       </c>
       <c r="J557" s="1">
@@ -23952,7 +23967,7 @@
       <c r="H558" s="1">
         <v>0</v>
       </c>
-      <c r="I558" s="2">
+      <c r="I558" s="3">
         <v>44227.4388888889</v>
       </c>
       <c r="J558" s="1">
@@ -23990,7 +24005,7 @@
       <c r="H559" s="1">
         <v>0</v>
       </c>
-      <c r="I559" s="2">
+      <c r="I559" s="3">
         <v>44226.7298611111</v>
       </c>
       <c r="J559" s="1">
@@ -24028,7 +24043,7 @@
       <c r="H560" s="1">
         <v>0</v>
       </c>
-      <c r="I560" s="2">
+      <c r="I560" s="3">
         <v>44214.5708333333</v>
       </c>
       <c r="J560" s="1">
@@ -24066,7 +24081,7 @@
       <c r="H561" s="1">
         <v>0.03</v>
       </c>
-      <c r="I561" s="2">
+      <c r="I561" s="3">
         <v>44175.5354166667</v>
       </c>
       <c r="J561" s="1">
@@ -24104,7 +24119,7 @@
       <c r="H562" s="1">
         <v>0.01</v>
       </c>
-      <c r="I562" s="2">
+      <c r="I562" s="3">
         <v>43575.5201388889</v>
       </c>
       <c r="J562" s="1">
@@ -24142,7 +24157,7 @@
       <c r="H563" s="1">
         <v>0</v>
       </c>
-      <c r="I563" s="2">
+      <c r="I563" s="3">
         <v>44090.9256944444</v>
       </c>
       <c r="J563" s="1">
@@ -24180,7 +24195,7 @@
       <c r="H564" s="1">
         <v>0</v>
       </c>
-      <c r="I564" s="2">
+      <c r="I564" s="3">
         <v>44228.1541666667</v>
       </c>
       <c r="J564" s="1">
@@ -24218,7 +24233,7 @@
       <c r="H565" s="1">
         <v>0.01</v>
       </c>
-      <c r="I565" s="2">
+      <c r="I565" s="3">
         <v>43681.1305555556</v>
       </c>
       <c r="J565" s="1">
@@ -24256,7 +24271,7 @@
       <c r="H566" s="1">
         <v>0</v>
       </c>
-      <c r="I566" s="2">
+      <c r="I566" s="3">
         <v>43878.8770833333</v>
       </c>
       <c r="J566" s="1">
@@ -24294,7 +24309,7 @@
       <c r="H567" s="1">
         <v>0.1</v>
       </c>
-      <c r="I567" s="2">
+      <c r="I567" s="3">
         <v>43566.0479166667</v>
       </c>
       <c r="J567" s="1">
@@ -24332,7 +24347,7 @@
       <c r="H568" s="1">
         <v>0</v>
       </c>
-      <c r="I568" s="2">
+      <c r="I568" s="3">
         <v>43977.2895833333</v>
       </c>
       <c r="J568" s="1">
@@ -24370,7 +24385,7 @@
       <c r="H569" s="1">
         <v>0</v>
       </c>
-      <c r="I569" s="2">
+      <c r="I569" s="3">
         <v>44228.3083333333</v>
       </c>
       <c r="J569" s="1">
@@ -24408,7 +24423,7 @@
       <c r="H570" s="1">
         <v>0</v>
       </c>
-      <c r="I570" s="2">
+      <c r="I570" s="3">
         <v>44098.9506944444</v>
       </c>
       <c r="J570" s="1">
@@ -24446,7 +24461,7 @@
       <c r="H571" s="1">
         <v>0.14</v>
       </c>
-      <c r="I571" s="2">
+      <c r="I571" s="3">
         <v>43539.8736111111</v>
       </c>
       <c r="J571" s="1">
@@ -24484,7 +24499,7 @@
       <c r="H572" s="1">
         <v>0</v>
       </c>
-      <c r="I572" s="2">
+      <c r="I572" s="3">
         <v>44209.6229166667</v>
       </c>
       <c r="J572" s="1">

--- a/外链/json format/codebeautify.org-jsonviewer/codebeautify.org-referringdomains-prefix-live-04-Feb-2021.xlsx
+++ b/外链/json format/codebeautify.org-jsonviewer/codebeautify.org-referringdomains-prefix-live-04-Feb-2021.xlsx
@@ -1775,10 +1775,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1791,29 +1791,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1833,39 +1810,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1881,22 +1834,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1910,6 +1856,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1918,9 +1919,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1948,79 +1948,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2038,7 +1966,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2050,7 +2026,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2062,37 +2074,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2104,13 +2092,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2143,25 +2143,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2175,26 +2166,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2214,17 +2196,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2247,10 +2247,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2259,133 +2259,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2762,7 +2762,7 @@
   <dimension ref="A1:L572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B157" sqref="B157"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2773,7 +2773,10 @@
     <col min="4" max="4" width="19.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="27.875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="19.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:12">

--- a/外链/json format/codebeautify.org-jsonviewer/codebeautify.org-referringdomains-prefix-live-04-Feb-2021.xlsx
+++ b/外链/json format/codebeautify.org-jsonviewer/codebeautify.org-referringdomains-prefix-live-04-Feb-2021.xlsx
@@ -1778,10 +1778,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1793,21 +1793,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1820,8 +1829,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1829,14 +1846,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1858,27 +1875,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1891,23 +1899,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1921,16 +1922,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1957,7 +1957,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1969,49 +2089,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2023,121 +2137,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2148,6 +2148,59 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2162,15 +2215,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2190,30 +2234,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2228,26 +2248,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2256,10 +2256,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2268,133 +2268,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2789,7 +2789,7 @@
   <dimension ref="A1:M572"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="A46" sqref="$A46:$XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4344,276 +4344,276 @@
         <v>9321506</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" spans="1:13">
-      <c r="A40" s="1">
+    <row r="40" s="2" customFormat="1" spans="1:13">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="1">
+      <c r="C40" s="5"/>
+      <c r="D40" s="2">
         <v>85</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="2">
         <v>3752</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="2">
         <v>9</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="2">
         <v>0.03</v>
       </c>
-      <c r="H40" s="1">
-        <v>1</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0</v>
-      </c>
-      <c r="J40" s="8">
+      <c r="H40" s="2">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="6">
         <v>42366.0555555556</v>
       </c>
-      <c r="K40" s="9">
+      <c r="K40" s="7">
         <v>29780</v>
       </c>
-      <c r="L40" s="9">
+      <c r="L40" s="7">
         <v>20187</v>
       </c>
-      <c r="M40" s="1">
+      <c r="M40" s="2">
         <v>124722</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" spans="1:13">
-      <c r="A41" s="1">
+    <row r="41" s="2" customFormat="1" spans="1:13">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="1">
+      <c r="C41" s="5"/>
+      <c r="D41" s="2">
         <v>85</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="2">
         <v>3796</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="2">
         <v>4</v>
       </c>
-      <c r="G41" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="H41" s="1">
-        <v>1</v>
-      </c>
-      <c r="I41" s="1">
-        <v>0</v>
-      </c>
-      <c r="J41" s="8">
+      <c r="G41" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6">
         <v>43648.6444444444</v>
       </c>
-      <c r="K41" s="9">
+      <c r="K41" s="7">
         <v>41507</v>
       </c>
-      <c r="L41" s="9">
+      <c r="L41" s="7">
         <v>24009</v>
       </c>
-      <c r="M41" s="1">
+      <c r="M41" s="2">
         <v>10520759</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" spans="1:13">
-      <c r="A42" s="1">
+    <row r="42" s="2" customFormat="1" spans="1:13">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="1">
+      <c r="C42" s="5"/>
+      <c r="D42" s="2">
         <v>85</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="2">
         <v>4079</v>
       </c>
-      <c r="F42" s="1">
-        <v>2</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="H42" s="1">
-        <v>0</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0</v>
-      </c>
-      <c r="J42" s="8">
+      <c r="F42" s="2">
+        <v>2</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="6">
         <v>43993.0215277778</v>
       </c>
-      <c r="K42" s="9">
+      <c r="K42" s="7">
         <v>22010</v>
       </c>
-      <c r="L42" s="9">
+      <c r="L42" s="7">
         <v>1196</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M42" s="2">
         <v>418266</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" spans="1:13">
-      <c r="A43" s="1">
+    <row r="43" s="2" customFormat="1" spans="1:13">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="1">
+      <c r="C43" s="5"/>
+      <c r="D43" s="2">
         <v>84</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="2">
         <v>4423</v>
       </c>
-      <c r="F43" s="1">
-        <v>1</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0</v>
-      </c>
-      <c r="J43" s="8">
+      <c r="F43" s="2">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="6">
         <v>43450.6229166667</v>
       </c>
-      <c r="K43" s="9">
+      <c r="K43" s="7">
         <v>4091</v>
       </c>
-      <c r="L43" s="1">
+      <c r="L43" s="2">
         <v>437</v>
       </c>
-      <c r="M43" s="1">
+      <c r="M43" s="2">
         <v>2209415</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" spans="1:13">
-      <c r="A44" s="1">
+    <row r="44" s="2" customFormat="1" spans="1:13">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="1">
+      <c r="C44" s="5"/>
+      <c r="D44" s="2">
         <v>84</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="2">
         <v>4471</v>
       </c>
-      <c r="F44" s="1">
-        <v>1</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0</v>
-      </c>
-      <c r="H44" s="1">
-        <v>1</v>
-      </c>
-      <c r="I44" s="1">
-        <v>0</v>
-      </c>
-      <c r="J44" s="8">
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="6">
         <v>43683.5430555556</v>
       </c>
-      <c r="K44" s="9">
+      <c r="K44" s="7">
         <v>8342</v>
       </c>
-      <c r="L44" s="9">
+      <c r="L44" s="7">
         <v>66912</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M44" s="2">
         <v>4100</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" spans="1:13">
-      <c r="A45" s="1">
+    <row r="45" s="2" customFormat="1" spans="1:13">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="1">
+      <c r="C45" s="5"/>
+      <c r="D45" s="2">
         <v>84</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="2">
         <v>4651</v>
       </c>
-      <c r="F45" s="1">
-        <v>2</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0</v>
-      </c>
-      <c r="I45" s="1">
-        <v>0</v>
-      </c>
-      <c r="J45" s="8">
+      <c r="F45" s="2">
+        <v>2</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="6">
         <v>43457.0944444444</v>
       </c>
-      <c r="K45" s="9">
+      <c r="K45" s="7">
         <v>4610</v>
       </c>
-      <c r="L45" s="1">
+      <c r="L45" s="2">
         <v>416</v>
       </c>
-      <c r="M45" s="1">
+      <c r="M45" s="2">
         <v>189740</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" spans="1:13">
-      <c r="A46" s="1">
+    <row r="46" s="2" customFormat="1" spans="1:13">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="1">
+      <c r="C46" s="5"/>
+      <c r="D46" s="2">
         <v>84</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="2">
         <v>4732</v>
       </c>
-      <c r="F46" s="1">
-        <v>1</v>
-      </c>
-      <c r="G46" s="1">
-        <v>0</v>
-      </c>
-      <c r="H46" s="1">
-        <v>1</v>
-      </c>
-      <c r="I46" s="1">
-        <v>0</v>
-      </c>
-      <c r="J46" s="8">
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="6">
         <v>44043.9256944444</v>
       </c>
-      <c r="K46" s="9">
+      <c r="K46" s="7">
         <v>33913</v>
       </c>
-      <c r="L46" s="9">
+      <c r="L46" s="7">
         <v>220120</v>
       </c>
-      <c r="M46" s="1">
+      <c r="M46" s="2">
         <v>1313214</v>
       </c>
     </row>
